--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="455">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -525,18 +525,12 @@
     <t>LICEA</t>
   </si>
   <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
     <t>HUESCA</t>
   </si>
   <si>
     <t>CELICEO</t>
   </si>
   <si>
-    <t>ALCARAZ</t>
-  </si>
-  <si>
     <t>CALPULALPAN</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>QADMIEL TAMARA</t>
   </si>
   <si>
-    <t>RENZO JHOVANI</t>
-  </si>
-  <si>
     <t>YARELY JACQUELINE</t>
   </si>
   <si>
@@ -618,9 +609,6 @@
     <t>DE LA GARZA</t>
   </si>
   <si>
-    <t>JUAN</t>
-  </si>
-  <si>
     <t>ROJAS</t>
   </si>
   <si>
@@ -669,9 +657,6 @@
     <t>MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>OSWALDO ENRIQUE</t>
-  </si>
-  <si>
     <t>YAEL</t>
   </si>
   <si>
@@ -690,691 +675,682 @@
     <t>ADOLFO</t>
   </si>
   <si>
-    <t>GROTH</t>
-  </si>
-  <si>
     <t>LEON</t>
   </si>
   <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
+    <t>MORO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>JUDITH ESTEFANIA</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>EDGAR ARMANDO</t>
+  </si>
+  <si>
+    <t>EZRA</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>ERIK JAIR</t>
+  </si>
+  <si>
+    <t>SAUL BRANDON</t>
+  </si>
+  <si>
+    <t>REALIZA MANTENIMIENTO EN EL SISTEMA DE DISTRIBUCIÓN DE ENERGÍA ELÉCTRICA</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>TEMAS DE FÍSICA</t>
+  </si>
+  <si>
+    <t>TEMAS DE FILOSOFÍA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>ALEXA</t>
+  </si>
+  <si>
+    <t>YAIRA GUADALUPE</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>MARTHA MARISOL</t>
+  </si>
+  <si>
+    <t>ANALIZA SANGRE MEDIANTE PRUEBAS HORMONALES, TOXICOLÓGICAS Y DE MARCADORES TUMORALES</t>
+  </si>
+  <si>
+    <t>TEMAS DE BIOLOGÍA CONTEMPORÁNEA</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
     <t>GASCA</t>
   </si>
   <si>
-    <t>MORO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>AREVALO</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>BANDALA</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>PATRICIA MARLENE</t>
+  </si>
+  <si>
+    <t>VICTOR ALEXANDER</t>
+  </si>
+  <si>
+    <t>MARY JOSE</t>
+  </si>
+  <si>
+    <t>JOSUA</t>
+  </si>
+  <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
+    <t>AELEN</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS APLICADAS</t>
+  </si>
+  <si>
+    <t>DESARROLLA APLICACIONES MÓVILES PARA ANDROID</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>EDUARDO RAFAEL</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
+  </si>
+  <si>
+    <t>INSTALA UNA RED LAN</t>
+  </si>
+  <si>
+    <t>OPERA UNA RED LAN</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>DIANA VIANEY</t>
+  </si>
+  <si>
+    <t>LEZLYE PATRICIA</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>JOSUE ADARAYAN</t>
+  </si>
+  <si>
+    <t>ANALIZA SANGRE CON BASE EN TÉCNICAS DE QUÍMICA CLÍNICA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
+    <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>LIMON</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>BASILIO</t>
+  </si>
+  <si>
+    <t>NOYOLA</t>
+  </si>
+  <si>
+    <t>XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>MARIJOSE</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>DAMARIS</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>CANTELLAN</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>IBAÑEZ</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>DANIELA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
+    <t>ENSAMBLA E INSTALA CONTROLADORES Y DISPOSITIVOS PERIFÉRICOS</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>JUAN EFRAIN</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTRÓNICO</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>JOSMAR ANTONIO</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>CONSTRUYE PÁGINAS WEB</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>ASTRID</t>
+  </si>
+  <si>
+    <t>ASISTE EN LAS ACTIVIDADES DE CAPACITACIÓN PARA EL DESARROLLO DEL CAPITAL HUMANO</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>MAZA</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>EMANUEL</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>CANCINO</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>ARIZA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>JOEL EDUARDO</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>ELISAMAR</t>
+  </si>
+  <si>
+    <t>CASIANO</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>DIANA MIRELLY</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
   </si>
   <si>
     <t>ARELY</t>
-  </si>
-  <si>
-    <t>KEVIN JETHZAEL</t>
-  </si>
-  <si>
-    <t>DENISSE</t>
-  </si>
-  <si>
-    <t>DANNA PAOLA</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>JUDITH ESTEFANIA</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS INMUNOLÓGICOS</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>ZAMUDIO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>EDGAR ARMANDO</t>
-  </si>
-  <si>
-    <t>EZRA</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>ERIK JAIR</t>
-  </si>
-  <si>
-    <t>SAUL BRANDON</t>
-  </si>
-  <si>
-    <t>REALIZA MANTENIMIENTO EN EL SISTEMA DE DISTRIBUCIÓN DE ENERGÍA ELÉCTRICA</t>
-  </si>
-  <si>
-    <t>PROBABILIDAD Y ESTADÍSTICA</t>
-  </si>
-  <si>
-    <t>TEMAS DE FÍSICA</t>
-  </si>
-  <si>
-    <t>TEMAS DE FILOSOFÍA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>VALDES</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
-    <t>ALEXA</t>
-  </si>
-  <si>
-    <t>YAIRA GUADALUPE</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>MARTHA MARISOL</t>
-  </si>
-  <si>
-    <t>ANALIZA SANGRE MEDIANTE PRUEBAS HORMONALES, TOXICOLÓGICAS Y DE MARCADORES TUMORALES</t>
-  </si>
-  <si>
-    <t>TEMAS DE BIOLOGÍA CONTEMPORÁNEA</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>AREVALO</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>BANDALA</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>PATRICIA MARLENE</t>
-  </si>
-  <si>
-    <t>VICTOR ALEXANDER</t>
-  </si>
-  <si>
-    <t>MARY JOSE</t>
-  </si>
-  <si>
-    <t>JOSUA</t>
-  </si>
-  <si>
-    <t>ESTEFANI JHOSSELYNE</t>
-  </si>
-  <si>
-    <t>AELEN</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS APLICADAS</t>
-  </si>
-  <si>
-    <t>DESARROLLA APLICACIONES MÓVILES PARA ANDROID</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>EDUARDO RAFAEL</t>
-  </si>
-  <si>
-    <t>INSTALA UNA RED LAN</t>
-  </si>
-  <si>
-    <t>OPERA UNA RED LAN</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>DIANA VIANEY</t>
-  </si>
-  <si>
-    <t>LEZLYE PATRICIA</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>JOSUE ADARAYAN</t>
-  </si>
-  <si>
-    <t>ANALIZA SANGRE CON BASE EN TÉCNICAS DE QUÍMICA CLÍNICA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSUE</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>AMARELY GUADALUPE</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>NOYOLA</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>MEILYN ADABEL</t>
-  </si>
-  <si>
-    <t>CONSTANZA XIMENA</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>CANTELLAN</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>IBAÑEZ</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>DANIELA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>JAVIER ANTONIO</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
-  </si>
-  <si>
-    <t>ENSAMBLA E INSTALA CONTROLADORES Y DISPOSITIVOS PERIFÉRICOS</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>GERARDO RAUL</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>JUAN EFRAIN</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTRÓNICO</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>JOSMAR ANTONIO</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>CONSTRUYE PÁGINAS WEB</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ESPARZA</t>
-  </si>
-  <si>
-    <t>BRISEÑO</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>NOE</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
-    <t>ASISTE EN LAS ACTIVIDADES DE CAPACITACIÓN PARA EL DESARROLLO DEL CAPITAL HUMANO</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>NICIO</t>
-  </si>
-  <si>
-    <t>MAZA</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>EMANUEL</t>
-  </si>
-  <si>
-    <t>ANGEL GABRIEL</t>
-  </si>
-  <si>
-    <t>CARLOS MANUEL</t>
-  </si>
-  <si>
-    <t>CANCINO</t>
-  </si>
-  <si>
-    <t>ISIDRO</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>ARIZA</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>JOEL EDUARDO</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
-    <t>ELISAMAR</t>
-  </si>
-  <si>
-    <t>CASIANO</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>DIANA MIRELLY</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
   </si>
   <si>
     <t>OSWALDO IVAN</t>
@@ -2019,10 +1995,10 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
         <v>178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>143</v>
@@ -2039,7 +2015,7 @@
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2059,7 +2035,7 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2076,16 +2052,16 @@
         <v>19330051920130</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2096,13 +2072,13 @@
         <v>19330051920130</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
         <v>143</v>
@@ -2119,10 +2095,10 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
@@ -2136,13 +2112,13 @@
         <v>19330051920133</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>143</v>
@@ -2156,16 +2132,16 @@
         <v>19330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2176,13 +2152,13 @@
         <v>19330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
         <v>143</v>
@@ -2196,13 +2172,13 @@
         <v>19330051920140</v>
       </c>
       <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
         <v>177</v>
       </c>
-      <c r="C11" t="s">
-        <v>180</v>
-      </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
         <v>142</v>
@@ -2218,7 +2194,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2252,13 +2228,13 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2272,13 +2248,13 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2295,7 +2271,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
         <v>143</v>
@@ -2309,16 +2285,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2329,16 +2305,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2349,13 +2325,13 @@
         <v>19330051920096</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
@@ -2372,10 +2348,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
         <v>143</v>
@@ -2392,13 +2368,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2412,13 +2388,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2432,10 +2408,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
@@ -2446,19 +2422,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920107</v>
+        <v>19330051920110</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2466,16 +2442,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920110</v>
+        <v>19330051920116</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
         <v>143</v>
@@ -2486,16 +2462,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920116</v>
+        <v>19330051920117</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
         <v>143</v>
@@ -2506,19 +2482,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920117</v>
+        <v>19330051920118</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -2526,19 +2502,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920118</v>
+        <v>19330051920119</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2549,16 +2525,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2566,41 +2542,21 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920119</v>
+        <v>19330051920122</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19">
         <v>5</v>
       </c>
     </row>
@@ -2611,7 +2567,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2639,76 +2595,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920194</v>
+        <v>19330051920197</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920194</v>
+        <v>19330051920201</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
         <v>214</v>
       </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920197</v>
+        <v>19330051920201</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920197</v>
+        <v>19330051920202</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
         <v>142</v>
@@ -2719,19 +2675,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920201</v>
+        <v>19330051920207</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -2739,81 +2695,21 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920201</v>
+        <v>19330051920214</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920202</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920214</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10">
         <v>5</v>
       </c>
     </row>
@@ -2855,16 +2751,16 @@
         <v>18330051920140</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2875,16 +2771,16 @@
         <v>18330051920152</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2898,13 +2794,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2918,13 +2814,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2938,13 +2834,13 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2958,13 +2854,13 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2981,10 +2877,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -2998,16 +2894,16 @@
         <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3018,16 +2914,16 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3035,16 +2931,16 @@
         <v>18330051920177</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -3088,16 +2984,16 @@
         <v>18330051920253</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3108,16 +3004,16 @@
         <v>18330051920253</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3131,13 +3027,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3151,13 +3047,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3174,10 +3070,10 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3188,16 +3084,16 @@
         <v>18330051920308</v>
       </c>
       <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" t="s">
         <v>243</v>
       </c>
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>252</v>
-      </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3214,10 +3110,10 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3234,10 +3130,10 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3248,16 +3144,16 @@
         <v>18330051920311</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3301,16 +3197,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3321,16 +3217,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3341,16 +3237,16 @@
         <v>18330051920357</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3367,10 +3263,10 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3387,10 +3283,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3401,16 +3297,16 @@
         <v>18330051920364</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3424,13 +3320,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3441,16 +3337,16 @@
         <v>18330051920367</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3461,16 +3357,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3481,16 +3377,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3503,7 +3399,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3531,41 +3427,21 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920213</v>
+        <v>18330051920218</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>18330051920218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3">
         <v>-1</v>
       </c>
     </row>
@@ -3613,10 +3489,10 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3633,10 +3509,10 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -3647,16 +3523,16 @@
         <v>18330051920394</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3667,16 +3543,16 @@
         <v>18330051920394</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -3720,16 +3596,16 @@
         <v>18330051920314</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3740,16 +3616,16 @@
         <v>18330051920314</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3766,10 +3642,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3786,10 +3662,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3800,16 +3676,16 @@
         <v>18330051920329</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3823,13 +3699,13 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3843,13 +3719,13 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3866,10 +3742,10 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3886,10 +3762,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3903,13 +3779,13 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3923,13 +3799,13 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3943,13 +3819,13 @@
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3963,13 +3839,13 @@
         <v>116</v>
       </c>
       <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
         <v>285</v>
-      </c>
-      <c r="D14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" t="s">
-        <v>294</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -4013,13 +3889,13 @@
         <v>20330051920061</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4039,7 +3915,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -4053,13 +3929,13 @@
         <v>20330051920069</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -4073,13 +3949,13 @@
         <v>20330051920069</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -4093,13 +3969,13 @@
         <v>20330051920087</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -4116,10 +3992,10 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -4136,13 +4012,13 @@
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4153,13 +4029,13 @@
         <v>20330051920386</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -4173,13 +4049,13 @@
         <v>20330051920386</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -4339,16 +4215,16 @@
         <v>20330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4362,13 +4238,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4379,16 +4255,16 @@
         <v>20330051920200</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4432,13 +4308,13 @@
         <v>19220030050208</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -4458,7 +4334,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -4475,10 +4351,10 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -4498,7 +4374,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -4545,13 +4421,13 @@
         <v>18202030110266</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4565,16 +4441,16 @@
         <v>18202030110266</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4588,13 +4464,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4608,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -4625,13 +4501,13 @@
         <v>20330051920131</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -4645,16 +4521,16 @@
         <v>20330051920131</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4668,10 +4544,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -4688,13 +4564,13 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -4705,16 +4581,16 @@
         <v>20330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4725,13 +4601,13 @@
         <v>20330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -4745,13 +4621,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
@@ -4765,13 +4641,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -4785,13 +4661,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -4805,16 +4681,16 @@
         <v>20330051920144</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -4828,10 +4704,10 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" t="s">
         <v>332</v>
-      </c>
-      <c r="D16" t="s">
-        <v>341</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -4848,13 +4724,13 @@
         <v>116</v>
       </c>
       <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="s">
         <v>332</v>
       </c>
-      <c r="D17" t="s">
-        <v>341</v>
-      </c>
       <c r="E17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -4871,7 +4747,7 @@
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -4891,7 +4767,7 @@
         <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -4911,10 +4787,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -4958,16 +4834,16 @@
         <v>20330051920320</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4984,10 +4860,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5001,10 +4877,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -5024,10 +4900,10 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -5044,7 +4920,7 @@
         <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -5061,10 +4937,10 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -5081,10 +4957,10 @@
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -5098,13 +4974,13 @@
         <v>20330051920326</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -5118,16 +4994,16 @@
         <v>20330051920326</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5138,16 +5014,16 @@
         <v>20330051920328</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5158,13 +5034,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -5181,13 +5057,13 @@
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5201,10 +5077,10 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -5221,13 +5097,13 @@
         <v>59</v>
       </c>
       <c r="C15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" t="s">
         <v>348</v>
       </c>
-      <c r="D15" t="s">
-        <v>357</v>
-      </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -5241,13 +5117,13 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
         <v>348</v>
       </c>
-      <c r="D16" t="s">
-        <v>357</v>
-      </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -5258,7 +5134,7 @@
         <v>20330051920397</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -5278,7 +5154,7 @@
         <v>20330051920397</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -5334,16 +5210,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5354,16 +5230,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5377,7 +5253,7 @@
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -5394,13 +5270,13 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5414,13 +5290,13 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5437,7 +5313,7 @@
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
@@ -5454,7 +5330,7 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
         <v>140</v>
@@ -5474,13 +5350,13 @@
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
         <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5491,16 +5367,16 @@
         <v>19330051920418</v>
       </c>
       <c r="B10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
         <v>359</v>
       </c>
-      <c r="C10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" t="s">
-        <v>368</v>
-      </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>360</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5511,16 +5387,16 @@
         <v>19330051920418</v>
       </c>
       <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" t="s">
         <v>359</v>
       </c>
-      <c r="C11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" t="s">
-        <v>368</v>
-      </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5567,10 +5443,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
@@ -5590,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -5610,10 +5486,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5630,7 +5506,7 @@
         <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -5680,13 +5556,13 @@
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5697,7 +5573,7 @@
         <v>19330051920307</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -5706,7 +5582,7 @@
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -5717,13 +5593,13 @@
         <v>19330051920311</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
         <v>143</v>
@@ -5737,16 +5613,16 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5757,16 +5633,16 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5780,13 +5656,13 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5800,10 +5676,10 @@
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
@@ -5823,10 +5699,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5843,10 +5719,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5863,7 +5739,7 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
@@ -5883,10 +5759,10 @@
         <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -5930,16 +5806,16 @@
         <v>19330051920360</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5950,13 +5826,13 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -5970,16 +5846,16 @@
         <v>19330051920366</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5996,7 +5872,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -6016,10 +5892,10 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6033,13 +5909,13 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -6056,10 +5932,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6076,10 +5952,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -6096,10 +5972,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -6113,13 +5989,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -6130,16 +6006,16 @@
         <v>19330051920391</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -6150,16 +6026,16 @@
         <v>19330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -6170,16 +6046,16 @@
         <v>19330051920427</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -6196,7 +6072,7 @@
         <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E15" t="s">
         <v>151</v>
@@ -6216,10 +6092,10 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -6230,16 +6106,16 @@
         <v>19330051920456</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -6283,16 +6159,16 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -6303,13 +6179,13 @@
         <v>19330051920251</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
         <v>143</v>
@@ -6323,13 +6199,13 @@
         <v>19330051920414</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
         <v>143</v>
@@ -6346,13 +6222,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6366,10 +6242,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
@@ -6416,7 +6292,7 @@
         <v>17330051920160</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6425,7 +6301,7 @@
         <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6436,16 +6312,16 @@
         <v>18330051920006</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6456,7 +6332,7 @@
         <v>18330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -6465,7 +6341,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6476,7 +6352,7 @@
         <v>18330051920014</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -6485,7 +6361,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6505,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6516,16 +6392,16 @@
         <v>18330051920026</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6539,13 +6415,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6762,16 +6638,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6782,16 +6658,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6805,13 +6681,13 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6825,13 +6701,13 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6845,13 +6721,13 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6868,10 +6744,10 @@
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6888,10 +6764,10 @@
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6902,16 +6778,16 @@
         <v>18330051920278</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -6922,16 +6798,16 @@
         <v>18330051920278</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6945,13 +6821,13 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -6965,13 +6841,13 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -7015,16 +6891,16 @@
         <v>18330051920113</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7035,16 +6911,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -7055,16 +6931,16 @@
         <v>18330051920120</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -7081,10 +6957,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -7095,16 +6971,16 @@
         <v>18330051920128</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7115,16 +6991,16 @@
         <v>18330051920128</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7141,10 +7017,10 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7155,16 +7031,16 @@
         <v>18330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7175,16 +7051,16 @@
         <v>18330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -7195,16 +7071,16 @@
         <v>18330051920455</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -7248,16 +7124,16 @@
         <v>18330051920088</v>
       </c>
       <c r="B2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
         <v>447</v>
-      </c>
-      <c r="C2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" t="s">
-        <v>455</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7268,16 +7144,16 @@
         <v>18330051920090</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7288,16 +7164,16 @@
         <v>18330051920110</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7308,16 +7184,16 @@
         <v>18330051920391</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7361,16 +7237,16 @@
         <v>18330051920040</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7381,16 +7257,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7401,16 +7277,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -7427,10 +7303,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7447,10 +7323,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7470,7 +7346,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7490,7 +7366,7 @@
         <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7504,13 +7380,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7524,13 +7400,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -7541,16 +7417,16 @@
         <v>18330051920075</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8622,10 +8498,10 @@
         <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8642,10 +8518,10 @@
         <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8682,7 +8558,7 @@
         <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -8702,7 +8578,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -8868,7 +8744,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8902,10 +8778,10 @@
         <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>142</v>
@@ -8925,10 +8801,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -8942,13 +8818,13 @@
         <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -8965,7 +8841,7 @@
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
         <v>142</v>
@@ -8985,7 +8861,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
@@ -9005,7 +8881,7 @@
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
         <v>142</v>
@@ -9025,10 +8901,10 @@
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -9045,10 +8921,10 @@
         <v>58</v>
       </c>
       <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
         <v>169</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -9065,7 +8941,7 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
         <v>142</v>
@@ -9076,16 +8952,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920404</v>
+        <v>19330051920429</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
         <v>142</v>
@@ -9102,35 +8978,15 @@
         <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920429</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13">
         <v>5</v>
       </c>
     </row>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -2234,7 +2234,7 @@
         <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2254,7 +2254,7 @@
         <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2354,7 +2354,7 @@
         <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2374,7 +2374,7 @@
         <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3532,10 +3532,10 @@
         <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5216,10 +5216,10 @@
         <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5236,10 +5236,10 @@
         <v>355</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6361,10 +6361,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8498,10 +8498,10 @@
         <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8518,10 +8518,10 @@
         <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8558,7 +8558,7 @@
         <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -8578,7 +8578,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22">
         <v>5</v>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -8261,7 +8261,7 @@
         <v>143</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8281,7 +8281,7 @@
         <v>143</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8401,7 +8401,7 @@
         <v>143</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8521,7 +8521,7 @@
         <v>143</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8541,7 +8541,7 @@
         <v>143</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="458">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -474,12 +474,12 @@
     <t>ESTEFANY SARAI</t>
   </si>
   <si>
+    <t>CÁLCULO DIFERENCIAL</t>
+  </si>
+  <si>
     <t>INGLÉS IV</t>
   </si>
   <si>
-    <t>CÁLCULO DIFERENCIAL</t>
-  </si>
-  <si>
     <t>BONOLA</t>
   </si>
   <si>
@@ -597,6 +597,9 @@
     <t>CATHERIN DALAY</t>
   </si>
   <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
     <t>MARLENE ALICIA</t>
   </si>
   <si>
@@ -1107,6 +1110,9 @@
     <t>CID</t>
   </si>
   <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
@@ -1117,6 +1123,9 @@
   </si>
   <si>
     <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>VICTOR SAUL</t>
   </si>
   <si>
     <t>ALEXIS YAIR</t>
@@ -1961,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2001,10 +2010,10 @@
         <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2021,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2041,7 +2050,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2061,7 +2070,7 @@
         <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2081,7 +2090,7 @@
         <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2101,7 +2110,7 @@
         <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2121,7 +2130,7 @@
         <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2161,7 +2170,7 @@
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2169,13 +2178,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920140</v>
+        <v>19330051920136</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>183</v>
@@ -2184,6 +2193,26 @@
         <v>142</v>
       </c>
       <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>19330051920140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
     </row>
@@ -2228,13 +2257,13 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2248,13 +2277,13 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2271,10 +2300,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2285,16 +2314,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2305,16 +2334,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2325,16 +2354,16 @@
         <v>19330051920096</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2348,10 +2377,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -2368,13 +2397,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2388,10 +2417,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
         <v>169</v>
@@ -2408,13 +2437,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2431,10 +2460,10 @@
         <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2445,16 +2474,16 @@
         <v>19330051920116</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2465,16 +2494,16 @@
         <v>19330051920117</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2485,13 +2514,13 @@
         <v>19330051920118</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
         <v>169</v>
@@ -2505,16 +2534,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2525,13 +2554,13 @@
         <v>19330051920119</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -2545,16 +2574,16 @@
         <v>19330051920122</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2604,7 +2633,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -2621,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
         <v>169</v>
@@ -2641,10 +2670,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -2658,16 +2687,16 @@
         <v>19330051920202</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2678,13 +2707,13 @@
         <v>19330051920207</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
         <v>169</v>
@@ -2701,13 +2730,13 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2751,16 +2780,16 @@
         <v>18330051920140</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2771,16 +2800,16 @@
         <v>18330051920152</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2794,13 +2823,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2814,13 +2843,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2837,10 +2866,10 @@
         <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2857,10 +2886,10 @@
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2877,10 +2906,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -2894,13 +2923,13 @@
         <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -2914,13 +2943,13 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2931,16 +2960,16 @@
         <v>18330051920177</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -2984,16 +3013,16 @@
         <v>18330051920253</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3004,16 +3033,16 @@
         <v>18330051920253</v>
       </c>
       <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
         <v>233</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" t="s">
-        <v>246</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3027,13 +3056,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3047,13 +3076,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3070,10 +3099,10 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3084,16 +3113,16 @@
         <v>18330051920308</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3110,10 +3139,10 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3130,10 +3159,10 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3144,16 +3173,16 @@
         <v>18330051920311</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3197,16 +3226,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3217,16 +3246,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3237,16 +3266,16 @@
         <v>18330051920357</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3263,10 +3292,10 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3283,10 +3312,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3297,16 +3326,16 @@
         <v>18330051920364</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3320,13 +3349,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3337,16 +3366,16 @@
         <v>18330051920367</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3357,16 +3386,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3377,16 +3406,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3436,10 +3465,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3489,10 +3518,10 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3509,10 +3538,10 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -3523,16 +3552,16 @@
         <v>18330051920394</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -3543,16 +3572,16 @@
         <v>18330051920394</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3596,16 +3625,16 @@
         <v>18330051920314</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3616,16 +3645,16 @@
         <v>18330051920314</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3642,10 +3671,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3662,10 +3691,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3676,16 +3705,16 @@
         <v>18330051920329</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3699,13 +3728,13 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3719,13 +3748,13 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3742,10 +3771,10 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3762,10 +3791,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3779,13 +3808,13 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3799,13 +3828,13 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3819,13 +3848,13 @@
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3839,13 +3868,13 @@
         <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3889,13 +3918,13 @@
         <v>20330051920061</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3915,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -3929,13 +3958,13 @@
         <v>20330051920069</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -3949,13 +3978,13 @@
         <v>20330051920069</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -3969,13 +3998,13 @@
         <v>20330051920087</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -3992,10 +4021,10 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -4015,10 +4044,10 @@
         <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4029,13 +4058,13 @@
         <v>20330051920386</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -4049,13 +4078,13 @@
         <v>20330051920386</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -4215,16 +4244,16 @@
         <v>20330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4238,13 +4267,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4255,16 +4284,16 @@
         <v>20330051920200</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4308,13 +4337,13 @@
         <v>19220030050208</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -4334,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -4351,10 +4380,10 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -4374,7 +4403,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -4421,13 +4450,13 @@
         <v>18202030110266</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4441,16 +4470,16 @@
         <v>18202030110266</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4464,13 +4493,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4484,10 +4513,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -4501,13 +4530,13 @@
         <v>20330051920131</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -4521,16 +4550,16 @@
         <v>20330051920131</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4544,10 +4573,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -4564,13 +4593,13 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -4581,16 +4610,16 @@
         <v>20330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4601,13 +4630,13 @@
         <v>20330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -4621,13 +4650,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
@@ -4641,13 +4670,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -4661,13 +4690,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -4681,16 +4710,16 @@
         <v>20330051920144</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -4704,10 +4733,10 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -4724,13 +4753,13 @@
         <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -4747,7 +4776,7 @@
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -4767,7 +4796,7 @@
         <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -4787,10 +4816,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -4834,16 +4863,16 @@
         <v>20330051920320</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4860,10 +4889,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4877,10 +4906,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -4900,10 +4929,10 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -4920,7 +4949,7 @@
         <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -4937,10 +4966,10 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -4957,10 +4986,10 @@
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -4974,13 +5003,13 @@
         <v>20330051920326</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -4994,16 +5023,16 @@
         <v>20330051920326</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5014,16 +5043,16 @@
         <v>20330051920328</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5034,13 +5063,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -5057,13 +5086,13 @@
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5077,10 +5106,10 @@
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -5097,13 +5126,13 @@
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -5117,13 +5146,13 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -5134,7 +5163,7 @@
         <v>20330051920397</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -5154,7 +5183,7 @@
         <v>20330051920397</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -5176,7 +5205,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5210,10 +5239,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -5230,13 +5259,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5253,7 +5282,7 @@
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
@@ -5270,13 +5299,13 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5284,19 +5313,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920067</v>
+        <v>19330051920064</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5304,19 +5333,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920071</v>
+        <v>19330051920064</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>363</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5324,59 +5353,59 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920074</v>
+        <v>19330051920067</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920074</v>
+        <v>19330051920071</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920418</v>
+        <v>19330051920074</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5384,21 +5413,61 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
+        <v>19330051920074</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>19330051920418</v>
       </c>
-      <c r="B11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12" t="s">
         <v>151</v>
       </c>
-      <c r="F11">
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>19330051920418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E13" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
     </row>
@@ -5443,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
@@ -5466,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -5486,7 +5555,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
         <v>169</v>
@@ -5506,7 +5575,7 @@
         <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -5556,13 +5625,13 @@
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5573,7 +5642,7 @@
         <v>19330051920307</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -5593,16 +5662,16 @@
         <v>19330051920311</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5613,16 +5682,16 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5633,13 +5702,13 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
         <v>169</v>
@@ -5656,10 +5725,10 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
         <v>169</v>
@@ -5676,10 +5745,10 @@
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
@@ -5699,7 +5768,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
         <v>169</v>
@@ -5719,10 +5788,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5739,10 +5808,10 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5759,7 +5828,7 @@
         <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
         <v>169</v>
@@ -5806,13 +5875,13 @@
         <v>19330051920360</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -5826,13 +5895,13 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -5846,16 +5915,16 @@
         <v>19330051920366</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5872,7 +5941,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -5892,7 +5961,7 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s">
         <v>169</v>
@@ -5909,10 +5978,10 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E7" t="s">
         <v>169</v>
@@ -5932,7 +6001,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -5952,10 +6021,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5972,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
         <v>169</v>
@@ -5989,10 +6058,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -6006,16 +6075,16 @@
         <v>19330051920391</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -6026,13 +6095,13 @@
         <v>19330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E13" t="s">
         <v>169</v>
@@ -6046,13 +6115,13 @@
         <v>19330051920427</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -6072,7 +6141,7 @@
         <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
         <v>151</v>
@@ -6092,7 +6161,7 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
         <v>169</v>
@@ -6106,10 +6175,10 @@
         <v>19330051920456</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
@@ -6159,13 +6228,13 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -6179,16 +6248,16 @@
         <v>19330051920251</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6199,16 +6268,16 @@
         <v>19330051920414</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6222,10 +6291,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -6242,10 +6311,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
@@ -6292,7 +6361,7 @@
         <v>17330051920160</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6301,7 +6370,7 @@
         <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6312,16 +6381,16 @@
         <v>18330051920006</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6332,7 +6401,7 @@
         <v>18330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -6341,7 +6410,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6352,7 +6421,7 @@
         <v>18330051920014</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -6361,7 +6430,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6381,7 +6450,7 @@
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6392,16 +6461,16 @@
         <v>18330051920026</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6415,13 +6484,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6607,7 +6676,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6638,16 +6707,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6658,16 +6727,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6681,13 +6750,13 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6701,13 +6770,13 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6721,13 +6790,13 @@
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6735,19 +6804,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920272</v>
+        <v>18330051920248</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6764,10 +6833,10 @@
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6775,19 +6844,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920278</v>
+        <v>18330051920272</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -6798,16 +6867,16 @@
         <v>18330051920278</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6815,22 +6884,22 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920285</v>
+        <v>18330051920278</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6841,15 +6910,35 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>18330051920285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
     </row>
@@ -6891,16 +6980,16 @@
         <v>18330051920113</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6911,16 +7000,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6931,16 +7020,16 @@
         <v>18330051920120</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6957,10 +7046,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6971,16 +7060,16 @@
         <v>18330051920128</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6991,16 +7080,16 @@
         <v>18330051920128</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7017,10 +7106,10 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7031,16 +7120,16 @@
         <v>18330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7051,16 +7140,16 @@
         <v>18330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -7071,16 +7160,16 @@
         <v>18330051920455</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -7124,16 +7213,16 @@
         <v>18330051920088</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7144,16 +7233,16 @@
         <v>18330051920090</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7164,16 +7253,16 @@
         <v>18330051920110</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7184,16 +7273,16 @@
         <v>18330051920391</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7237,16 +7326,16 @@
         <v>18330051920040</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7257,16 +7346,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7277,16 +7366,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -7303,10 +7392,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7323,10 +7412,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7346,7 +7435,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7366,7 +7455,7 @@
         <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7380,13 +7469,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7400,13 +7489,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -7417,16 +7506,16 @@
         <v>18330051920075</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8138,7 +8227,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8186,19 +8275,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920168</v>
+        <v>18330061460390</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8206,19 +8295,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330061460390</v>
+        <v>19330051920003</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8226,19 +8315,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920003</v>
+        <v>19330051920011</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8246,7 +8335,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920011</v>
+        <v>19330051920012</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
@@ -8255,10 +8344,10 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8266,19 +8355,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920012</v>
+        <v>19330051920020</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8286,19 +8375,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920020</v>
+        <v>19330051920021</v>
       </c>
       <c r="B8" t="s">
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8306,16 +8395,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920021</v>
+        <v>19330051920022</v>
       </c>
       <c r="B9" t="s">
         <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>143</v>
@@ -8346,16 +8435,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920022</v>
+        <v>19330051920024</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
@@ -8386,19 +8475,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920024</v>
+        <v>19330051920029</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -8406,19 +8495,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920029</v>
+        <v>19330051920034</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -8426,19 +8515,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920034</v>
+        <v>19330051920037</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -8446,19 +8535,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920037</v>
+        <v>19330051920038</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -8466,16 +8555,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920038</v>
+        <v>19330051920039</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>143</v>
@@ -8506,19 +8595,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920039</v>
+        <v>19330051920040</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -8526,19 +8615,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920040</v>
+        <v>19330051920422</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -8561,26 +8650,6 @@
         <v>143</v>
       </c>
       <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920422</v>
-      </c>
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22">
         <v>5</v>
       </c>
     </row>
@@ -8671,7 +8740,7 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8691,7 +8760,7 @@
         <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8711,7 +8780,7 @@
         <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8784,7 +8853,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8844,7 +8913,7 @@
         <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8884,7 +8953,7 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8944,7 +9013,7 @@
         <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -8964,7 +9033,7 @@
         <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11">
         <v>5</v>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="463">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -285,879 +285,915 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>BRUNO AZAEL</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>AMERICA MICHELLE</t>
+  </si>
+  <si>
+    <t>YAMILE</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOSE ISAAC</t>
+  </si>
+  <si>
+    <t>LUZ CLARA</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
+  </si>
+  <si>
+    <t>JOSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>YEPEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>HAZIEL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>CÁLCULO DIFERENCIAL</t>
+  </si>
+  <si>
+    <t>INGLÉS IV</t>
+  </si>
+  <si>
+    <t>BONOLA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>IAN ISSAID</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>MARIANA JOSELIN</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>ECOLOGÍA</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE ROJA</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERAS</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>FÍSICA I</t>
+  </si>
+  <si>
+    <t>DESARROLLA APLICACIONES QUE SE EJECUTAN EN EL CLIENTE</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>NURIEL</t>
+  </si>
+  <si>
+    <t>DENISSE MERARY</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
+    <t>EVALÚA EL DESEMPEÑO DE LA ORGANIZACIÓN UTILIZANDO HERRAMIENTAS DE CALIDAD</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DE LA GARZA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TOCOHUA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>ANTEMATE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>JAFET</t>
+  </si>
+  <si>
+    <t>DULCE REGINA</t>
+  </si>
+  <si>
+    <t>AXEL MIGUEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MORO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>JUDITH ESTEFANIA</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>EDGAR ARMANDO</t>
+  </si>
+  <si>
+    <t>EZRA</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>ERIK JAIR</t>
+  </si>
+  <si>
+    <t>SAUL BRANDON</t>
+  </si>
+  <si>
+    <t>REALIZA MANTENIMIENTO EN EL SISTEMA DE DISTRIBUCIÓN DE ENERGÍA ELÉCTRICA</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>TEMAS DE FÍSICA</t>
+  </si>
+  <si>
+    <t>TEMAS DE FILOSOFÍA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>ALEXA</t>
+  </si>
+  <si>
+    <t>YAIRA GUADALUPE</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>MARTHA MARISOL</t>
+  </si>
+  <si>
+    <t>ANALIZA SANGRE MEDIANTE PRUEBAS HORMONALES, TOXICOLÓGICAS Y DE MARCADORES TUMORALES</t>
+  </si>
+  <si>
+    <t>TEMAS DE BIOLOGÍA CONTEMPORÁNEA</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>AREVALO</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>BANDALA</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>PATRICIA MARLENE</t>
+  </si>
+  <si>
+    <t>VICTOR ALEXANDER</t>
+  </si>
+  <si>
+    <t>MARY JOSE</t>
+  </si>
+  <si>
+    <t>JOSUA</t>
+  </si>
+  <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
+    <t>AELEN</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS APLICADAS</t>
+  </si>
+  <si>
+    <t>DESARROLLA APLICACIONES MÓVILES PARA ANDROID</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>EDUARDO RAFAEL</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
+  </si>
+  <si>
+    <t>INSTALA UNA RED LAN</t>
+  </si>
+  <si>
+    <t>OPERA UNA RED LAN</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>DIANA VIANEY</t>
+  </si>
+  <si>
+    <t>LEZLYE PATRICIA</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>JOSUE ADARAYAN</t>
+  </si>
+  <si>
+    <t>ANALIZA SANGRE CON BASE EN TÉCNICAS DE QUÍMICA CLÍNICA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>ALDIR ADALBERTO</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>DULIAM</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
+    <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>DULCE FERNANDA</t>
+  </si>
+  <si>
+    <t>KITZIA YAMILET</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>LIMON</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>BASILIO</t>
+  </si>
+  <si>
+    <t>NOYOLA</t>
+  </si>
+  <si>
+    <t>XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>MARIJOSE</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>DAMARIS</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>CANTELLAN</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>IBAÑEZ</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>DANIELA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
+    <t>ENSAMBLA E INSTALA CONTROLADORES Y DISPOSITIVOS PERIFÉRICOS</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>JUAN EFRAIN</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTRÓNICO</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>AMADOR</t>
   </si>
   <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>BRUNO AZAEL</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>AMERICA MICHELLE</t>
-  </si>
-  <si>
-    <t>YAMILE</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JOSE ISAAC</t>
-  </si>
-  <si>
-    <t>LUZ CLARA</t>
-  </si>
-  <si>
-    <t>ARANTZA</t>
-  </si>
-  <si>
-    <t>JOSELIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>HAZIEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>ALAN EDUARDO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
-    <t>CÁLCULO DIFERENCIAL</t>
-  </si>
-  <si>
-    <t>INGLÉS IV</t>
-  </si>
-  <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>IAN ISSAID</t>
-  </si>
-  <si>
-    <t>CINTHIA</t>
-  </si>
-  <si>
-    <t>MARIANA JOSELIN</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>ECOLOGÍA</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE ROJA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>CELICEO</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>PAOLA</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>ZURISADAI</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>FÍSICA I</t>
-  </si>
-  <si>
-    <t>DESARROLLA APLICACIONES QUE SE EJECUTAN EN EL CLIENTE</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>DAMARIS JABNEL</t>
-  </si>
-  <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>NURIEL</t>
-  </si>
-  <si>
-    <t>DENISSE MERARY</t>
-  </si>
-  <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
-    <t>ROCIO</t>
-  </si>
-  <si>
-    <t>MARLENE ALICIA</t>
-  </si>
-  <si>
-    <t>EVALÚA EL DESEMPEÑO DE LA ORGANIZACIÓN UTILIZANDO HERRAMIENTAS DE CALIDAD</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>DE LA GARZA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TOCOHUA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>ANTEMATE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>JOSE JAZAEL</t>
-  </si>
-  <si>
-    <t>JAFET</t>
-  </si>
-  <si>
-    <t>DULCE REGINA</t>
-  </si>
-  <si>
-    <t>AXEL MIGUEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>YARITZI</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MORO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>KEVIN JETHZAEL</t>
-  </si>
-  <si>
-    <t>DENISSE</t>
-  </si>
-  <si>
-    <t>DANNA PAOLA</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>JUDITH ESTEFANIA</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>ZAMUDIO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>EDGAR ARMANDO</t>
-  </si>
-  <si>
-    <t>EZRA</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>ERIK JAIR</t>
-  </si>
-  <si>
-    <t>SAUL BRANDON</t>
-  </si>
-  <si>
-    <t>REALIZA MANTENIMIENTO EN EL SISTEMA DE DISTRIBUCIÓN DE ENERGÍA ELÉCTRICA</t>
-  </si>
-  <si>
-    <t>PROBABILIDAD Y ESTADÍSTICA</t>
-  </si>
-  <si>
-    <t>TEMAS DE FÍSICA</t>
-  </si>
-  <si>
-    <t>TEMAS DE FILOSOFÍA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>VALDES</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
-    <t>ALEXA</t>
-  </si>
-  <si>
-    <t>YAIRA GUADALUPE</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>MARTHA MARISOL</t>
-  </si>
-  <si>
-    <t>ANALIZA SANGRE MEDIANTE PRUEBAS HORMONALES, TOXICOLÓGICAS Y DE MARCADORES TUMORALES</t>
-  </si>
-  <si>
-    <t>TEMAS DE BIOLOGÍA CONTEMPORÁNEA</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>AREVALO</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>BANDALA</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>PATRICIA MARLENE</t>
-  </si>
-  <si>
-    <t>VICTOR ALEXANDER</t>
-  </si>
-  <si>
-    <t>MARY JOSE</t>
-  </si>
-  <si>
-    <t>JOSUA</t>
-  </si>
-  <si>
-    <t>ESTEFANI JHOSSELYNE</t>
-  </si>
-  <si>
-    <t>AELEN</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS APLICADAS</t>
-  </si>
-  <si>
-    <t>DESARROLLA APLICACIONES MÓVILES PARA ANDROID</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>EDUARDO RAFAEL</t>
-  </si>
-  <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
-    <t>INSTALA UNA RED LAN</t>
-  </si>
-  <si>
-    <t>OPERA UNA RED LAN</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>DIANA VIANEY</t>
-  </si>
-  <si>
-    <t>LEZLYE PATRICIA</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>JOSUE ADARAYAN</t>
-  </si>
-  <si>
-    <t>ANALIZA SANGRE CON BASE EN TÉCNICAS DE QUÍMICA CLÍNICA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSUE</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>AMARELY GUADALUPE</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>NOYOLA</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>MEILYN ADABEL</t>
-  </si>
-  <si>
-    <t>CONSTANZA XIMENA</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>CANTELLAN</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>IBAÑEZ</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>DANIELA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>JAVIER ANTONIO</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
-  </si>
-  <si>
-    <t>ENSAMBLA E INSTALA CONTROLADORES Y DISPOSITIVOS PERIFÉRICOS</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>VILLAR</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>GERARDO RAUL</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>VICTOR SAUL</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>JUAN EFRAIN</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTRÓNICO</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
     <t>JOSMAR ANTONIO</t>
   </si>
   <si>
@@ -1248,18 +1284,12 @@
     <t>ALCANTARA</t>
   </si>
   <si>
-    <t>TREJO</t>
-  </si>
-  <si>
     <t>LEYVA</t>
   </si>
   <si>
     <t>PALMA</t>
   </si>
   <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
     <t>SERRANO</t>
   </si>
   <si>
@@ -1269,9 +1299,6 @@
     <t>VALERIA</t>
   </si>
   <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
     <t>CRISTIAN</t>
   </si>
   <si>
@@ -1311,9 +1338,6 @@
     <t>ALEJANDRO</t>
   </si>
   <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
     <t>MONSERRAT</t>
   </si>
   <si>
@@ -1335,9 +1359,6 @@
     <t>ESPIRITU</t>
   </si>
   <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
     <t>VILLA</t>
   </si>
   <si>
@@ -1362,16 +1383,10 @@
     <t>ARELY</t>
   </si>
   <si>
-    <t>OSWALDO IVAN</t>
-  </si>
-  <si>
     <t>YULENNY</t>
   </si>
   <si>
     <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>DESARROLLA APLICACIONES MÓVILES PARA IOS</t>
   </si>
   <si>
     <t>BERINSTAIN</t>
@@ -1897,10 +1912,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1917,10 +1932,10 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2001,16 +2016,16 @@
         <v>19330051920128</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" t="s">
-        <v>178</v>
-      </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2021,16 +2036,16 @@
         <v>19330051920129</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2041,16 +2056,16 @@
         <v>19330051920129</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2061,16 +2076,16 @@
         <v>19330051920130</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2081,16 +2096,16 @@
         <v>19330051920130</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2104,13 +2119,13 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2121,16 +2136,16 @@
         <v>19330051920133</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2141,16 +2156,16 @@
         <v>19330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2161,16 +2176,16 @@
         <v>19330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2181,16 +2196,16 @@
         <v>19330051920136</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2201,16 +2216,16 @@
         <v>19330051920140</v>
       </c>
       <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
         <v>174</v>
       </c>
-      <c r="C12" t="s">
-        <v>177</v>
-      </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2254,16 +2269,16 @@
         <v>19330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2274,16 +2289,16 @@
         <v>19330051920001</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2300,10 +2315,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2314,16 +2329,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2334,16 +2349,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2354,16 +2369,16 @@
         <v>19330051920096</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2377,13 +2392,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2397,13 +2412,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2417,13 +2432,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2437,13 +2452,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2457,13 +2472,13 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2474,16 +2489,16 @@
         <v>19330051920116</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2494,16 +2509,16 @@
         <v>19330051920117</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2514,16 +2529,16 @@
         <v>19330051920118</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -2534,16 +2549,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2554,16 +2569,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2574,16 +2589,16 @@
         <v>19330051920122</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2627,16 +2642,16 @@
         <v>19330051920197</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -2650,13 +2665,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -2670,13 +2685,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
         <v>212</v>
       </c>
-      <c r="D4" t="s">
-        <v>215</v>
-      </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2687,16 +2702,16 @@
         <v>19330051920202</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2707,16 +2722,16 @@
         <v>19330051920207</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -2727,16 +2742,16 @@
         <v>19330051920214</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2780,16 +2795,16 @@
         <v>18330051920140</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2800,16 +2815,16 @@
         <v>18330051920152</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2823,13 +2838,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
         <v>222</v>
       </c>
-      <c r="D4" t="s">
-        <v>225</v>
-      </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2843,13 +2858,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
         <v>222</v>
       </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2863,13 +2878,13 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2883,13 +2898,13 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2900,16 +2915,16 @@
         <v>18330051920170</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -2920,16 +2935,16 @@
         <v>18330051920176</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -2940,16 +2955,16 @@
         <v>18330051920176</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" t="s">
         <v>228</v>
-      </c>
-      <c r="E10" t="s">
-        <v>231</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2960,16 +2975,16 @@
         <v>18330051920177</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -3013,16 +3028,16 @@
         <v>18330051920253</v>
       </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3033,16 +3048,16 @@
         <v>18330051920253</v>
       </c>
       <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3056,13 +3071,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3076,13 +3091,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3093,16 +3108,16 @@
         <v>18330051920302</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3113,16 +3128,16 @@
         <v>18330051920308</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3133,16 +3148,16 @@
         <v>18330051920309</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3153,16 +3168,16 @@
         <v>18330051920309</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" t="s">
         <v>245</v>
-      </c>
-      <c r="E9" t="s">
-        <v>248</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3173,16 +3188,16 @@
         <v>18330051920311</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3226,16 +3241,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3246,16 +3261,16 @@
         <v>18330051920355</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3266,16 +3281,16 @@
         <v>18330051920357</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3292,10 +3307,10 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3312,10 +3327,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3326,16 +3341,16 @@
         <v>18330051920364</v>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>251</v>
       </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3349,13 +3364,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3366,16 +3381,16 @@
         <v>18330051920367</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3386,16 +3401,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3406,16 +3421,16 @@
         <v>18330051920368</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3465,10 +3480,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3518,10 +3533,10 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3538,10 +3553,10 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
         <v>270</v>
-      </c>
-      <c r="E3" t="s">
-        <v>273</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -3552,16 +3567,16 @@
         <v>18330051920394</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -3572,16 +3587,16 @@
         <v>18330051920394</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3625,16 +3640,16 @@
         <v>18330051920314</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3645,16 +3660,16 @@
         <v>18330051920314</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3671,10 +3686,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3691,10 +3706,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3705,16 +3720,16 @@
         <v>18330051920329</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3725,16 +3740,16 @@
         <v>18330051920342</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3745,16 +3760,16 @@
         <v>18330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3768,13 +3783,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3791,10 +3806,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3808,13 +3823,13 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3828,13 +3843,13 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3845,16 +3860,16 @@
         <v>18330051920426</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3865,16 +3880,16 @@
         <v>18330051920426</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3887,7 +3902,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3915,36 +3930,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920061</v>
+        <v>20330051920059</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920068</v>
+        <v>20330051920059</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -3955,39 +3970,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920069</v>
+        <v>20330051920061</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920069</v>
+        <v>20330051920065</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3995,19 +4010,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920087</v>
+        <v>20330051920065</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -4015,19 +4030,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920090</v>
+        <v>20330051920068</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4035,19 +4050,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920093</v>
+        <v>20330051920069</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4055,19 +4070,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920386</v>
+        <v>20330051920069</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -4075,21 +4090,261 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
+        <v>20330051920078</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>20330051920078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20330051920080</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20330051920080</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>20330051920081</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>20330051920081</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>20330051920084</v>
+      </c>
+      <c r="B16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20330051920084</v>
+      </c>
+      <c r="B17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>20330051920087</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20330051920090</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>20330051920093</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
         <v>20330051920386</v>
       </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>20330051920386</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="F10">
+      <c r="F22">
         <v>5</v>
       </c>
     </row>
@@ -4213,7 +4468,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4244,16 +4499,16 @@
         <v>20330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4261,19 +4516,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920198</v>
+        <v>20330051920193</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4281,21 +4536,181 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
+        <v>20330051920193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>20330051920194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20330051920194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>20330051920196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20330051920196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>20330051920198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>20330051920200</v>
       </c>
-      <c r="B4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4">
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>20330051920214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20330051920214</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
     </row>
@@ -4337,13 +4752,13 @@
         <v>19220030050208</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -4354,42 +4769,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920281</v>
+        <v>20330051920279</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4403,7 +4818,7 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -4450,13 +4865,13 @@
         <v>18202030110266</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4470,16 +4885,16 @@
         <v>18202030110266</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4493,13 +4908,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4513,10 +4928,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -4530,13 +4945,13 @@
         <v>20330051920131</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -4550,16 +4965,16 @@
         <v>20330051920131</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4573,10 +4988,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -4593,13 +5008,13 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -4610,16 +5025,16 @@
         <v>20330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4630,13 +5045,13 @@
         <v>20330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -4650,13 +5065,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
@@ -4670,13 +5085,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -4690,13 +5105,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -4710,16 +5125,16 @@
         <v>20330051920144</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -4730,13 +5145,13 @@
         <v>20330051920148</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -4750,16 +5165,16 @@
         <v>20330051920148</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -4770,13 +5185,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -4790,13 +5205,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -4816,10 +5231,10 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -4863,16 +5278,16 @@
         <v>20330051920320</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4889,10 +5304,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4906,10 +5321,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -4926,13 +5341,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -4946,10 +5361,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -4963,13 +5378,13 @@
         <v>20330051920325</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -4983,13 +5398,13 @@
         <v>20330051920325</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -5003,13 +5418,13 @@
         <v>20330051920326</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -5023,16 +5438,16 @@
         <v>20330051920326</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5043,16 +5458,16 @@
         <v>20330051920328</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5063,13 +5478,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -5083,16 +5498,16 @@
         <v>20330051920332</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5103,13 +5518,13 @@
         <v>20330051920332</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -5126,13 +5541,13 @@
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -5146,13 +5561,13 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -5163,13 +5578,13 @@
         <v>20330051920397</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -5183,13 +5598,13 @@
         <v>20330051920397</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -5239,13 +5654,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5259,13 +5674,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5279,13 +5694,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5296,16 +5711,16 @@
         <v>19330051920060</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5316,16 +5731,16 @@
         <v>19330051920064</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5336,16 +5751,16 @@
         <v>19330051920064</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5359,13 +5774,13 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5376,16 +5791,16 @@
         <v>19330051920071</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -5396,16 +5811,16 @@
         <v>19330051920074</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5416,16 +5831,16 @@
         <v>19330051920074</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5436,16 +5851,16 @@
         <v>19330051920418</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -5456,16 +5871,16 @@
         <v>19330051920418</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5512,13 +5927,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5535,10 +5950,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5555,10 +5970,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5572,13 +5987,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5622,16 +6037,16 @@
         <v>17330051920076</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5642,16 +6057,16 @@
         <v>19330051920307</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -5662,16 +6077,16 @@
         <v>19330051920311</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5682,16 +6097,16 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5702,16 +6117,16 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5722,16 +6137,16 @@
         <v>19330051920321</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5742,16 +6157,16 @@
         <v>19330051920321</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5768,10 +6183,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5788,10 +6203,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5805,13 +6220,13 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5825,13 +6240,13 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -5875,16 +6290,16 @@
         <v>19330051920360</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5895,16 +6310,16 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5915,16 +6330,16 @@
         <v>19330051920366</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5941,10 +6356,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5961,10 +6376,10 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5975,16 +6390,16 @@
         <v>19330051920374</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5995,16 +6410,16 @@
         <v>19330051920375</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6015,16 +6430,16 @@
         <v>19330051920377</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -6041,10 +6456,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -6058,13 +6473,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -6075,16 +6490,16 @@
         <v>19330051920391</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -6095,16 +6510,16 @@
         <v>19330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -6115,16 +6530,16 @@
         <v>19330051920427</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -6138,13 +6553,13 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -6158,13 +6573,13 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -6175,16 +6590,16 @@
         <v>19330051920456</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -6197,7 +6612,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6228,16 +6643,16 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -6248,16 +6663,16 @@
         <v>19330051920251</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6265,22 +6680,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920414</v>
+        <v>19330051920433</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6291,35 +6706,15 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920433</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6">
         <v>-1</v>
       </c>
     </row>
@@ -6361,16 +6756,16 @@
         <v>17330051920160</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6381,16 +6776,16 @@
         <v>18330051920006</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6401,7 +6796,7 @@
         <v>18330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -6410,7 +6805,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6421,7 +6816,7 @@
         <v>18330051920014</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -6430,7 +6825,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6447,10 +6842,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6461,16 +6856,16 @@
         <v>18330051920026</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6484,13 +6879,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6707,16 +7102,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>421</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6727,16 +7122,16 @@
         <v>18330051920237</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6747,16 +7142,16 @@
         <v>18330051920245</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6767,16 +7162,16 @@
         <v>18330051920245</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6787,16 +7182,16 @@
         <v>18330051920248</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6807,16 +7202,16 @@
         <v>18330051920248</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6827,16 +7222,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6847,16 +7242,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -6867,16 +7262,16 @@
         <v>18330051920278</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6887,16 +7282,16 @@
         <v>18330051920278</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -6907,16 +7302,16 @@
         <v>18330051920285</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -6927,16 +7322,16 @@
         <v>18330051920285</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -6949,7 +7344,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6980,16 +7375,16 @@
         <v>18330051920113</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7000,16 +7395,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -7020,16 +7415,16 @@
         <v>18330051920120</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -7037,19 +7432,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920122</v>
+        <v>18330051920128</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -7060,36 +7455,36 @@
         <v>18330051920128</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920128</v>
+        <v>18330051920130</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7097,19 +7492,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920130</v>
+        <v>18330051920135</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>446</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7120,58 +7515,38 @@
         <v>18330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920135</v>
+        <v>18330051920455</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>440</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>18330051920455</v>
-      </c>
-      <c r="B11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11">
         <v>-1</v>
       </c>
     </row>
@@ -7213,16 +7588,16 @@
         <v>18330051920088</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7233,16 +7608,16 @@
         <v>18330051920090</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7253,16 +7628,16 @@
         <v>18330051920110</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7273,16 +7648,16 @@
         <v>18330051920391</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7326,16 +7701,16 @@
         <v>18330051920040</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7346,16 +7721,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7366,16 +7741,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -7392,10 +7767,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7412,10 +7787,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7426,16 +7801,16 @@
         <v>18330051920064</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7446,16 +7821,16 @@
         <v>18330051920064</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7469,13 +7844,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7489,13 +7864,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -7506,16 +7881,16 @@
         <v>18330051920075</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -7801,7 +8176,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7835,30 +8210,30 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920040</v>
+        <v>20330051920042</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -7869,22 +8244,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7895,7 +8270,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -7909,39 +8284,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920052</v>
+        <v>20330051920055</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920055</v>
+        <v>20330051920097</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7952,36 +8327,36 @@
         <v>20330051920097</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920097</v>
+        <v>20330051920109</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -7989,41 +8364,21 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920109</v>
+        <v>20330051920365</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920365</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11">
         <v>-1</v>
       </c>
     </row>
@@ -8071,7 +8426,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -8085,13 +8440,13 @@
         <v>20330051920286</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -8105,13 +8460,13 @@
         <v>20330051920295</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -8128,10 +8483,10 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -8148,10 +8503,10 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -8165,13 +8520,13 @@
         <v>20330051920305</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -8185,13 +8540,13 @@
         <v>20330051920310</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -8205,13 +8560,13 @@
         <v>20330051920313</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -8258,16 +8613,16 @@
         <v>18330051920168</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8278,16 +8633,16 @@
         <v>18330061460390</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8301,13 +8656,13 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8318,16 +8673,16 @@
         <v>19330051920011</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8338,16 +8693,16 @@
         <v>19330051920012</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8358,16 +8713,16 @@
         <v>19330051920020</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8378,16 +8733,16 @@
         <v>19330051920021</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8398,16 +8753,16 @@
         <v>19330051920022</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8418,16 +8773,16 @@
         <v>19330051920022</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -8438,16 +8793,16 @@
         <v>19330051920024</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8458,16 +8813,16 @@
         <v>19330051920024</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -8478,16 +8833,16 @@
         <v>19330051920029</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -8498,16 +8853,16 @@
         <v>19330051920034</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -8518,16 +8873,16 @@
         <v>19330051920037</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -8541,13 +8896,13 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -8558,16 +8913,16 @@
         <v>19330051920039</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -8578,16 +8933,16 @@
         <v>19330051920039</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
         <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>142</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -8598,16 +8953,16 @@
         <v>19330051920040</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -8618,16 +8973,16 @@
         <v>19330051920422</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -8638,16 +8993,16 @@
         <v>19330051920422</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -8691,16 +9046,16 @@
         <v>19330051920150</v>
       </c>
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8711,16 +9066,16 @@
         <v>19330051920150</v>
       </c>
       <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8734,13 +9089,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8754,13 +9109,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8774,13 +9129,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8797,10 +9152,10 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8844,16 +9199,16 @@
         <v>19330051920228</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>159</v>
       </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8864,16 +9219,16 @@
         <v>19330051920232</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -8884,16 +9239,16 @@
         <v>19330051920234</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -8904,16 +9259,16 @@
         <v>19330051920235</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8924,16 +9279,16 @@
         <v>19330051920235</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8944,16 +9299,16 @@
         <v>19330051920236</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8964,16 +9319,16 @@
         <v>19330051920236</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
         <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -8984,16 +9339,16 @@
         <v>19330051920237</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -9004,16 +9359,16 @@
         <v>19330051920237</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -9024,16 +9379,16 @@
         <v>19330051920429</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -9044,16 +9399,16 @@
         <v>19330051920429</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>5</v>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="421">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -159,705 +159,702 @@
     <t>PLIEGO</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SORIA</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>VANELY JUDITH</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>LISBETH ESMERALDA</t>
+  </si>
+  <si>
+    <t>VICTOR GAMALIEL</t>
+  </si>
+  <si>
+    <t>LAILA MANE</t>
+  </si>
+  <si>
+    <t>ANGEL EMMANUEL</t>
+  </si>
+  <si>
+    <t>JESUS URIEL</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
+    <t>TOMA MUESTRAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t>PREPARA SOLUCIONES PARA LAS OPERACIONES BÁSICAS DEL LABORATORIO</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>ANGELA MONTSERRAT</t>
+  </si>
+  <si>
+    <t>CONSTRUYE ALGORITMOS PARA LA SOLUCIÓN DE PROBLEMAS</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SORIA</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>VANELY JUDITH</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>ATENEA</t>
-  </si>
-  <si>
-    <t>GENARO RAFAEL</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>LISBETH ESMERALDA</t>
-  </si>
-  <si>
-    <t>VICTOR GAMALIEL</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>LAILA MANE</t>
-  </si>
-  <si>
-    <t>ANGEL EMMANUEL</t>
-  </si>
-  <si>
-    <t>JESUS URIEL</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>PREPARA SOLUCIONES PARA LAS OPERACIONES BÁSICAS DEL LABORATORIO</t>
-  </si>
-  <si>
-    <t>TOMA MUESTRAS BIOLÓGICAS</t>
+    <t>TEPEPA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>ELELYN IVETH</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
+  </si>
+  <si>
+    <t>ELABORA ESTRATEGIAS PARA REALIZAR LAS ACTIVIDADES DE SU ÁREA</t>
+  </si>
+  <si>
+    <t>DISTINGUE LOS DIFERENTES TIPOS DE EMPRESA POR SU GIRO, ÁREAS FUNCIONALES, DOCUMENTACIÓN ADMINISTRATIVA Y RECURSOS</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>ALEMAN</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>CHRISTIAN YAIR</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>AMERICA MICHELLE</t>
+  </si>
+  <si>
+    <t>ARIADNA</t>
+  </si>
+  <si>
+    <t>LUZ CLARA</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>VALDERRAMA</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANTONIO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>YAMIL ELIEL</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>FERNANDO DE JESUS</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>CÁLCULO DIFERENCIAL</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>AYELEN</t>
+  </si>
+  <si>
+    <t>FRANCISCO EMMANUEL</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>MARLENE</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE ROJA</t>
+  </si>
+  <si>
+    <t>ECOLOGÍA</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>DANTE GAMALIEL</t>
+  </si>
+  <si>
+    <t>ABDIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>URIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>EVALÚA EL DESEMPEÑO DE LA ORGANIZACIÓN UTILIZANDO HERRAMIENTAS DE CALIDAD</t>
+  </si>
+  <si>
+    <t>ASISTE EN LAS ACTIVIDADES DE CAPACITACIÓN PARA EL DESARROLLO DEL CAPITAL HUMANO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>CITLAHUA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>AVELINO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>ZENON</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>RAUL ARTURO</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JOSE ALONSO</t>
+  </si>
+  <si>
+    <t>LUIS MARIO</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>ANGEL JOHAN</t>
+  </si>
+  <si>
+    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTROMAGNÉTICO</t>
+  </si>
+  <si>
+    <t>GROTH</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>MORO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS INMUNOLÓGICOS</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS CITOQUÍMICOS A LÍQUIDOS Y SECRECIONES CORPORALES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>EDGAR ARMANDO</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>ALDUCIN</t>
+  </si>
+  <si>
+    <t>UZZIEL</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS APLICADAS</t>
+  </si>
+  <si>
+    <t>TEMAS DE FÍSICA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>JAIRO NEMESIO</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>KELLY ITZEL</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>VICTOR GAEL</t>
+  </si>
+  <si>
+    <t>ALDIR ADALBERTO</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>NORKYS AIRY</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>DULIAM</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
   </si>
   <si>
     <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
   </si>
   <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ANGELA MONTSERRAT</t>
-  </si>
-  <si>
-    <t>CONSTRUYE ALGORITMOS PARA LA SOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>ELELYN IVETH</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>EDGAR RAMSES</t>
-  </si>
-  <si>
-    <t>ELABORA ESTRATEGIAS PARA REALIZAR LAS ACTIVIDADES DE SU ÁREA</t>
-  </si>
-  <si>
-    <t>DISTINGUE LOS DIFERENTES TIPOS DE EMPRESA POR SU GIRO, ÁREAS FUNCIONALES, DOCUMENTACIÓN ADMINISTRATIVA Y RECURSOS</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>AMERICA MICHELLE</t>
-  </si>
-  <si>
-    <t>LUZ CLARA</t>
-  </si>
-  <si>
-    <t>ARANTZA</t>
-  </si>
-  <si>
-    <t>NAOMI</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>TELLO</t>
-  </si>
-  <si>
-    <t>VALDERRAMA</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>YAMIL ELIEL</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>FERNANDO DE JESUS</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
-    <t>CÁLCULO DIFERENCIAL</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>AYELEN</t>
-  </si>
-  <si>
-    <t>FRANCISCO EMMANUEL</t>
-  </si>
-  <si>
-    <t>CINTHIA</t>
-  </si>
-  <si>
-    <t>MARLENE</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE ROJA</t>
-  </si>
-  <si>
-    <t>ECOLOGÍA</t>
-  </si>
-  <si>
-    <t>GARIBAY</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>DANTE GAMALIEL</t>
-  </si>
-  <si>
-    <t>ABDIEL ANTONIO</t>
-  </si>
-  <si>
-    <t>URIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>DAMARIS JABNEL</t>
-  </si>
-  <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>EVALÚA EL DESEMPEÑO DE LA ORGANIZACIÓN UTILIZANDO HERRAMIENTAS DE CALIDAD</t>
-  </si>
-  <si>
-    <t>ASISTE EN LAS ACTIVIDADES DE CAPACITACIÓN PARA EL DESARROLLO DEL CAPITAL HUMANO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>CITLAHUA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>AVELINO</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>ZENON</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>RAUL ARTURO</t>
-  </si>
-  <si>
-    <t>JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
-    <t>AXEL</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>JOSE ALONSO</t>
-  </si>
-  <si>
-    <t>LUIS MARIO</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>ANGEL JOHAN</t>
-  </si>
-  <si>
-    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTROMAGNÉTICO</t>
-  </si>
-  <si>
-    <t>GROTH</t>
-  </si>
-  <si>
-    <t>GUILLEN</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>MORO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>DENISSE</t>
-  </si>
-  <si>
-    <t>JOSE GUILLERMO</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS INMUNOLÓGICOS</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS CITOQUÍMICOS A LÍQUIDOS Y SECRECIONES CORPORALES</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>EDGAR ARMANDO</t>
-  </si>
-  <si>
-    <t>PROBABILIDAD Y ESTADÍSTICA</t>
-  </si>
-  <si>
-    <t>ALDUCIN</t>
-  </si>
-  <si>
-    <t>UZZIEL</t>
-  </si>
-  <si>
-    <t>ALEX</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS APLICADAS</t>
-  </si>
-  <si>
-    <t>TEMAS DE FÍSICA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>JAIRO NEMESIO</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>KELLY ITZEL</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CANUTO</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SALAS</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>VICTOR GAEL</t>
-  </si>
-  <si>
-    <t>ALDIR ADALBERTO</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>NORKYS AIRY</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>DULIAM</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAHIR</t>
-  </si>
-  <si>
-    <t>SAID ANDRES</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
     <t>REALIZA INSTALACIONES ELÉCTRICAS</t>
   </si>
   <si>
@@ -897,19 +894,25 @@
     <t>AMADA ARELY</t>
   </si>
   <si>
+    <t>BENITEZ</t>
+  </si>
+  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
     <t>GARNICA</t>
   </si>
   <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
     <t>LEONARDO GAEL</t>
   </si>
   <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>APLICA ESTRUCTURAS DE CONTROL CON UN LENGUAJE DE PROGRAMACIÓN</t>
+    <t>VALERIA</t>
   </si>
   <si>
     <t>CARRILLO</t>
@@ -1032,78 +1035,87 @@
     <t>INGLÉS IV</t>
   </si>
   <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>CARMONA</t>
   </si>
   <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
+    <t>SALGADO</t>
   </si>
   <si>
     <t>ORTEGA</t>
   </si>
   <si>
+    <t>MELISSA VIANNEY</t>
+  </si>
+  <si>
     <t>ESDRAS ALAN</t>
   </si>
   <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>ANGEL ISAURO</t>
-  </si>
-  <si>
     <t>ALLISSON NICOLE</t>
   </si>
   <si>
+    <t>ROBERTO JESUS</t>
+  </si>
+  <si>
     <t>JOANNA GUADALUPE</t>
   </si>
   <si>
-    <t>BELLO</t>
+    <t>MENDOZA</t>
   </si>
   <si>
     <t>NAJERA</t>
   </si>
   <si>
+    <t>VILLA</t>
+  </si>
+  <si>
     <t>XOLIO</t>
   </si>
   <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>JOSMAR ANTONIO</t>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>CARLO HUMBERTO</t>
   </si>
   <si>
     <t>IGNACIO</t>
   </si>
   <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
     <t>HERSON ELIAS</t>
   </si>
   <si>
     <t>MISAEL</t>
   </si>
   <si>
-    <t>JOEL</t>
-  </si>
-  <si>
     <t>CIELO IVETTE</t>
   </si>
   <si>
+    <t>LUIS ALFREDO</t>
+  </si>
+  <si>
     <t>BRETON</t>
   </si>
   <si>
@@ -1173,16 +1185,22 @@
     <t>MEJIA</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
     <t>LEYVA</t>
   </si>
   <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
     <t>SIERRA</t>
   </si>
   <si>
     <t>MOISES EFRAIN</t>
   </si>
   <si>
-    <t>VALERIA</t>
+    <t>JULIO GABRIEL</t>
   </si>
   <si>
     <t>DIEGO ABDEL JARIN</t>
@@ -1191,6 +1209,12 @@
     <t>JESUS ALEXIS</t>
   </si>
   <si>
+    <t>JESUS JOAN</t>
+  </si>
+  <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
     <t>CRISTIAN</t>
   </si>
   <si>
@@ -1230,7 +1254,7 @@
     <t>GIL</t>
   </si>
   <si>
-    <t>VILLA</t>
+    <t>MANZANET</t>
   </si>
   <si>
     <t>BUSTAMANTE</t>
@@ -1239,12 +1263,12 @@
     <t>MACARIO</t>
   </si>
   <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
     <t>YULENNY</t>
   </si>
   <si>
@@ -1255,9 +1279,6 @@
   </si>
   <si>
     <t>DIEGO BERSAIN</t>
-  </si>
-  <si>
-    <t>DESARROLLA APLICACIONES MÓVILES PARA IOS</t>
   </si>
   <si>
     <t>CORDOBA</t>
@@ -1989,16 +2010,16 @@
         <v>19330051920128</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2009,16 +2030,16 @@
         <v>19330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2029,16 +2050,16 @@
         <v>19330051920139</v>
       </c>
       <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2049,16 +2070,16 @@
         <v>19330051920141</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2069,16 +2090,16 @@
         <v>19330051920424</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
         <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2089,16 +2110,16 @@
         <v>19330051920424</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2109,16 +2130,16 @@
         <v>19330051920431</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2129,16 +2150,16 @@
         <v>19330051920431</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
         <v>172</v>
-      </c>
-      <c r="E9" t="s">
-        <v>174</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2182,16 +2203,16 @@
         <v>19330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2202,16 +2223,16 @@
         <v>19330051920091</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2222,16 +2243,16 @@
         <v>19330051920091</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2242,16 +2263,16 @@
         <v>19330051920098</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2262,16 +2283,16 @@
         <v>19330051920099</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2285,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2302,16 +2323,16 @@
         <v>19330051920109</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2322,16 +2343,16 @@
         <v>19330051920109</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2342,16 +2363,16 @@
         <v>19330051920112</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2362,16 +2383,16 @@
         <v>19330051920113</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2382,16 +2403,16 @@
         <v>19330051920113</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2402,16 +2423,16 @@
         <v>19330051920118</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2422,16 +2443,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2442,16 +2463,16 @@
         <v>19330051920120</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -2462,16 +2483,16 @@
         <v>19330051920124</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" t="s">
         <v>199</v>
-      </c>
-      <c r="E16" t="s">
-        <v>201</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2482,16 +2503,16 @@
         <v>19330051920124</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2502,16 +2523,16 @@
         <v>19330051920457</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2522,16 +2543,16 @@
         <v>19330051920457</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2575,16 +2596,16 @@
         <v>19330051920194</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2595,16 +2616,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2615,16 +2636,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2635,16 +2656,16 @@
         <v>19330051920201</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2655,16 +2676,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2675,16 +2696,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2728,16 +2749,16 @@
         <v>18330051920152</v>
       </c>
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>217</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2814,16 +2835,16 @@
         <v>18330051920370</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
         <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>221</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2834,16 +2855,16 @@
         <v>18330051920370</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2854,16 +2875,16 @@
         <v>18330051920371</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
       </c>
-      <c r="D4" t="s">
-        <v>220</v>
-      </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2874,16 +2895,16 @@
         <v>18330051920371</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
         <v>218</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>220</v>
-      </c>
-      <c r="E5" t="s">
-        <v>222</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2930,13 +2951,13 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
         <v>225</v>
       </c>
-      <c r="D2" t="s">
-        <v>227</v>
-      </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2947,16 +2968,16 @@
         <v>18330051920225</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2967,16 +2988,16 @@
         <v>18330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
         <v>228</v>
-      </c>
-      <c r="E4" t="s">
-        <v>230</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2987,16 +3008,16 @@
         <v>18330051920227</v>
       </c>
       <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3040,16 +3061,16 @@
         <v>17330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3126,13 +3147,13 @@
         <v>20330051920059</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -3146,16 +3167,16 @@
         <v>20330051920059</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3166,13 +3187,13 @@
         <v>20330051920061</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3186,13 +3207,13 @@
         <v>20330051920063</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -3206,16 +3227,16 @@
         <v>20330051920063</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -3226,13 +3247,13 @@
         <v>20330051920065</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3252,7 +3273,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -3266,13 +3287,13 @@
         <v>20330051920069</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -3292,7 +3313,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -3312,10 +3333,10 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -3326,13 +3347,13 @@
         <v>20330051920071</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -3346,13 +3367,13 @@
         <v>20330051920071</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -3366,13 +3387,13 @@
         <v>20330051920073</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -3386,16 +3407,16 @@
         <v>20330051920073</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3406,16 +3427,16 @@
         <v>20330051920074</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -3426,13 +3447,13 @@
         <v>20330051920074</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -3446,16 +3467,16 @@
         <v>20330051920077</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3466,13 +3487,13 @@
         <v>20330051920077</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -3489,10 +3510,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -3509,13 +3530,13 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3529,10 +3550,10 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -3549,13 +3570,13 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3569,13 +3590,13 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -3589,10 +3610,10 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -3609,10 +3630,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -3629,13 +3650,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -3646,16 +3667,16 @@
         <v>20330051920084</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -3666,13 +3687,13 @@
         <v>20330051920084</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -3686,16 +3707,16 @@
         <v>20330051920089</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -3706,13 +3727,13 @@
         <v>20330051920089</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -3726,16 +3747,16 @@
         <v>20330051920090</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -3746,13 +3767,13 @@
         <v>20330051920092</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
@@ -3766,16 +3787,16 @@
         <v>20330051920092</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3789,13 +3810,13 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" t="s">
         <v>268</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -3806,13 +3827,13 @@
         <v>20330051920386</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
         <v>27</v>
@@ -3828,7 +3849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3862,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -3882,10 +3903,10 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -3902,10 +3923,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -3916,19 +3937,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920236</v>
+        <v>20330051920237</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3942,13 +3963,13 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3962,10 +3983,10 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3982,10 +4003,10 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -4002,10 +4023,10 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -4016,19 +4037,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920246</v>
+        <v>20330051920247</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4036,141 +4057,101 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920246</v>
+        <v>20330051920247</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920247</v>
+        <v>20330051920251</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920247</v>
+        <v>20330051920251</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920251</v>
+        <v>20330051920259</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920251</v>
+        <v>20330051920374</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920259</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>20330051920374</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17">
         <v>5</v>
       </c>
     </row>
@@ -4212,19 +4193,19 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4232,19 +4213,19 @@
         <v>20330051920190</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4252,13 +4233,13 @@
         <v>20330051920193</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -4272,16 +4253,16 @@
         <v>20330051920194</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -4292,13 +4273,13 @@
         <v>20330051920196</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -4312,13 +4293,13 @@
         <v>20330051920203</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -4332,16 +4313,16 @@
         <v>20330051920214</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -4352,16 +4333,16 @@
         <v>20330051920215</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -4372,13 +4353,13 @@
         <v>20330051920215</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -4394,7 +4375,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4422,22 +4403,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920264</v>
+        <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4451,30 +4432,30 @@
         <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920273</v>
+        <v>20330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -4482,21 +4463,41 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920273</v>
+        <v>20330051920267</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20330051920267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
         <v>-1</v>
       </c>
     </row>
@@ -4538,16 +4539,16 @@
         <v>18202030110266</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4558,13 +4559,13 @@
         <v>18202030110266</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -4578,16 +4579,16 @@
         <v>20330051920122</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4598,16 +4599,16 @@
         <v>20330051920122</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -4618,13 +4619,13 @@
         <v>20330051920131</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -4641,10 +4642,10 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -4661,13 +4662,13 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4678,13 +4679,13 @@
         <v>20330051920137</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -4698,16 +4699,16 @@
         <v>20330051920141</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4718,16 +4719,16 @@
         <v>20330051920141</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4738,13 +4739,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -4791,13 +4792,13 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -4811,13 +4812,13 @@
         <v>20330051920321</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -4831,13 +4832,13 @@
         <v>20330051920325</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -4851,16 +4852,16 @@
         <v>20330051920328</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -4871,13 +4872,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -4924,16 +4925,16 @@
         <v>18330051920022</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -4944,16 +4945,16 @@
         <v>18330051920022</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4964,16 +4965,16 @@
         <v>19330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -4984,16 +4985,16 @@
         <v>19330051920042</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5004,16 +5005,16 @@
         <v>19330051920045</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -5024,16 +5025,16 @@
         <v>19330051920046</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5044,16 +5045,16 @@
         <v>19330051920049</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5064,16 +5065,16 @@
         <v>19330051920049</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -5090,10 +5091,10 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -5110,10 +5111,10 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5127,13 +5128,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -5144,16 +5145,16 @@
         <v>19330051920074</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5164,16 +5165,16 @@
         <v>19330051920418</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -5186,7 +5187,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5214,19 +5215,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
         <v>336</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5234,19 +5235,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920273</v>
+        <v>19330051920271</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
         <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5254,59 +5255,59 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920284</v>
+        <v>19330051920273</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
         <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920284</v>
+        <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
         <v>337</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920292</v>
+        <v>19330051920343</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -5314,19 +5315,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920295</v>
+        <v>19330051920420</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5334,10 +5335,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920304</v>
+        <v>19330051920420</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>334</v>
@@ -5346,7 +5347,7 @@
         <v>339</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5354,61 +5355,21 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920343</v>
+        <v>19330051920442</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
         <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920442</v>
-      </c>
-      <c r="B10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920442</v>
-      </c>
-      <c r="B11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11">
         <v>5</v>
       </c>
     </row>
@@ -5419,7 +5380,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5447,19 +5408,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920311</v>
+        <v>19330051920308</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5467,19 +5428,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920321</v>
+        <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -5493,13 +5454,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>347</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5507,19 +5468,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920338</v>
+        <v>19330051920321</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -5527,19 +5488,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920338</v>
+        <v>19330051920334</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5547,19 +5508,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920353</v>
+        <v>19330051920334</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5567,19 +5528,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920353</v>
+        <v>19330051920338</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5587,19 +5548,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920354</v>
+        <v>19330051920342</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
         <v>349</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5607,19 +5568,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920354</v>
+        <v>19330051920342</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
         <v>349</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -5627,19 +5588,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920355</v>
+        <v>19330051920350</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
         <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5647,21 +5608,161 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <v>19330051920350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>19330051920352</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>19330051920352</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>19330051920353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>19330051920354</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>19330051920440</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12">
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>19330051920445</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>19330051920445</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19">
         <v>-1</v>
       </c>
     </row>
@@ -5672,7 +5773,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5703,16 +5804,16 @@
         <v>18330051920097</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5720,19 +5821,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920097</v>
+        <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -5743,36 +5844,36 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920360</v>
+        <v>19330051920367</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5780,39 +5881,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920367</v>
+        <v>19330051920374</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920374</v>
+        <v>19330051920382</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5820,39 +5921,39 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920382</v>
+        <v>19330051920383</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5860,39 +5961,39 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920383</v>
+        <v>19330051920386</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920386</v>
+        <v>19330051920391</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5900,59 +6001,59 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920386</v>
+        <v>19330051920396</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>359</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>148</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920391</v>
+        <v>19330051920399</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920396</v>
+        <v>19330051920399</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -5960,81 +6061,21 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920396</v>
+        <v>19330051920427</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920399</v>
-      </c>
-      <c r="B16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" t="s">
-        <v>371</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920399</v>
-      </c>
-      <c r="B17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E17" t="s">
-        <v>326</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920427</v>
-      </c>
-      <c r="B18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C18" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18">
         <v>-1</v>
       </c>
     </row>
@@ -6045,7 +6086,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6076,16 +6117,16 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -6093,19 +6134,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920251</v>
+        <v>19330051920252</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6113,19 +6154,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920259</v>
+        <v>19330051920252</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6133,19 +6174,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920264</v>
+        <v>19330051920259</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6156,16 +6197,16 @@
         <v>19330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6173,41 +6214,141 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920433</v>
+        <v>19330051920264</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
+        <v>19330051920408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>19330051920408</v>
+      </c>
+      <c r="B9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>19330051920409</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>19330051920409</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>19330051920433</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>19330051920433</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>389</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13">
         <v>-1</v>
       </c>
     </row>
@@ -6249,16 +6390,16 @@
         <v>16330051920566</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6272,13 +6413,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6292,13 +6433,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6312,13 +6453,13 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6332,13 +6473,13 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6349,16 +6490,16 @@
         <v>18330051920016</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6369,16 +6510,16 @@
         <v>18330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6389,16 +6530,16 @@
         <v>18330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -6409,16 +6550,16 @@
         <v>18330051920037</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6429,16 +6570,16 @@
         <v>18330051920037</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -6482,13 +6623,13 @@
         <v>20330051920340</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -6502,13 +6643,13 @@
         <v>20330051920342</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -6522,13 +6663,13 @@
         <v>20330051920349</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -6542,16 +6683,16 @@
         <v>20330051920355</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6562,13 +6703,13 @@
         <v>20330051920383</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -6615,16 +6756,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6637,7 +6778,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6668,16 +6809,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -6688,16 +6829,16 @@
         <v>18330051920120</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6705,19 +6846,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920128</v>
+        <v>18330051920127</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6725,59 +6866,59 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920132</v>
+        <v>18330051920127</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>403</v>
+        <v>219</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920132</v>
+        <v>18330051920128</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920135</v>
+        <v>18330051920132</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6788,16 +6929,16 @@
         <v>18330051920135</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6805,22 +6946,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920442</v>
+        <v>18330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6828,16 +6969,16 @@
         <v>18330051920442</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6845,21 +6986,41 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
+        <v>18330051920442</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>18330051920455</v>
       </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11">
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12">
         <v>-1</v>
       </c>
     </row>
@@ -6904,13 +7065,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6921,16 +7082,16 @@
         <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6941,16 +7102,16 @@
         <v>18330051920108</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6994,16 +7155,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7014,16 +7175,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7034,16 +7195,16 @@
         <v>18330051920041</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7054,16 +7215,16 @@
         <v>18330051920041</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -7074,16 +7235,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7094,16 +7255,16 @@
         <v>18330051920066</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7147,16 +7308,16 @@
         <v>20330051920158</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7167,13 +7328,13 @@
         <v>20330051920158</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -7187,16 +7348,16 @@
         <v>20330051920178</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7207,16 +7368,16 @@
         <v>20330051920183</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7227,16 +7388,16 @@
         <v>20330051920183</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7247,16 +7408,16 @@
         <v>20330051920306</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7267,16 +7428,16 @@
         <v>20330051920373</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7320,13 +7481,13 @@
         <v>20330051920039</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -7340,13 +7501,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -7360,13 +7521,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -7383,10 +7544,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -7403,10 +7564,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -7420,13 +7581,13 @@
         <v>20330051920100</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -7440,13 +7601,13 @@
         <v>20330051920100</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -7460,13 +7621,13 @@
         <v>20330051920109</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -7482,7 +7643,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7513,13 +7674,13 @@
         <v>20330051920286</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -7530,16 +7691,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920305</v>
+        <v>20330051920297</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -7550,19 +7711,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920310</v>
+        <v>20330051920297</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7570,16 +7731,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920310</v>
+        <v>20330051920305</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -7590,19 +7751,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920312</v>
+        <v>20330051920305</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7610,21 +7771,81 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>20330051920307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20330051920310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>20330051920310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>20330051920312</v>
       </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>5</v>
       </c>
     </row>
@@ -7666,16 +7887,16 @@
         <v>19330051920007</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7689,13 +7910,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7706,16 +7927,16 @@
         <v>19330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7726,16 +7947,16 @@
         <v>19330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7746,16 +7967,16 @@
         <v>19330051920026</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7766,16 +7987,16 @@
         <v>19330051920032</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7786,16 +8007,16 @@
         <v>19330051920033</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7806,16 +8027,16 @@
         <v>19330051920036</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7826,16 +8047,16 @@
         <v>19330051920417</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>141</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -7846,16 +8067,16 @@
         <v>19330051920422</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -7899,16 +8120,16 @@
         <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7922,13 +8143,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7942,13 +8163,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7959,16 +8180,16 @@
         <v>19330051920163</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7979,16 +8200,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7999,16 +8220,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
         <v>148</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8052,16 +8273,16 @@
         <v>19330051920231</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8072,16 +8293,16 @@
         <v>19330051920233</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8092,16 +8313,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8112,16 +8333,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8132,16 +8353,16 @@
         <v>19330051920243</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8152,16 +8373,16 @@
         <v>19330051920243</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8172,16 +8393,16 @@
         <v>19330051920425</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8192,16 +8413,16 @@
         <v>19330051920425</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8212,16 +8433,16 @@
         <v>19330051920429</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>5</v>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="400">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -66,1074 +66,1041 @@
     <t>Calificacion</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>NAZARIO</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>JARQUIN</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>NEHIZER JAEL</t>
+  </si>
+  <si>
+    <t>IRVING URIEL</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>JESUS DARIO</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>QUÍMICA II</t>
+  </si>
+  <si>
+    <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>MARIANO</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>LISBETH ESMERALDA</t>
+  </si>
+  <si>
+    <t>LAILA MANE</t>
+  </si>
+  <si>
+    <t>ANGEL EMMANUEL</t>
+  </si>
+  <si>
+    <t>JESUS URIEL</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
+    <t>LECTURA, EXPRESIÓN ORAL Y ESCRITA II</t>
+  </si>
+  <si>
+    <t>PREPARA SOLUCIONES PARA LAS OPERACIONES BÁSICAS DEL LABORATORIO</t>
+  </si>
+  <si>
+    <t>TOMA MUESTRAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VILLALBA</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>ANGELA MONTSERRAT</t>
+  </si>
+  <si>
+    <t>CONSTRUYE ALGORITMOS PARA LA SOLUCIÓN DE PROBLEMAS</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>TEPEPA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
+    <t>IDETH JOSELYN</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>ELELYN IVETH</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
+  </si>
+  <si>
+    <t>ELABORA ESTRATEGIAS PARA REALIZAR LAS ACTIVIDADES DE SU ÁREA</t>
+  </si>
+  <si>
+    <t>DISTINGUE LOS DIFERENTES TIPOS DE EMPRESA POR SU GIRO, ÁREAS FUNCIONALES, DOCUMENTACIÓN ADMINISTRATIVA Y RECURSOS</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>ELI ANTONIO</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>AMERICA MICHELLE</t>
+  </si>
+  <si>
+    <t>ARIADNA</t>
+  </si>
+  <si>
+    <t>ELIAN</t>
+  </si>
+  <si>
+    <t>IVONNE SHERLINE</t>
+  </si>
+  <si>
+    <t>LUZ CLARA</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>VALDERRAMA</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANTONIO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>YAMIL ELIEL</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>FERNANDO DE JESUS</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>CÁLCULO DIFERENCIAL</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>AYELEN</t>
+  </si>
+  <si>
+    <t>FRANCISCO EMMANUEL</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>MARLENE</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE ROJA</t>
+  </si>
+  <si>
+    <t>ECOLOGÍA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>MOISES URIEL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>DANTE GAMALIEL</t>
+  </si>
+  <si>
+    <t>ABDIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>URIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>ASISTE EN LAS ACTIVIDADES DE CAPACITACIÓN PARA EL DESARROLLO DEL CAPITAL HUMANO</t>
+  </si>
+  <si>
+    <t>EVALÚA EL DESEMPEÑO DE LA ORGANIZACIÓN UTILIZANDO HERRAMIENTAS DE CALIDAD</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>CITLAHUA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>AVELINO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>ZENON</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>RAUL ARTURO</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JOSE ALONSO</t>
+  </si>
+  <si>
+    <t>LUIS MARIO</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ANGEL JOHAN</t>
+  </si>
+  <si>
+    <t>GROTH</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>MORO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS INMUNOLÓGICOS</t>
+  </si>
+  <si>
+    <t>REALIZA ANÁLISIS CITOQUÍMICOS A LÍQUIDOS Y SECRECIONES CORPORALES</t>
+  </si>
+  <si>
+    <t>ALDUCIN</t>
+  </si>
+  <si>
+    <t>UZZIEL</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>TEMAS DE FÍSICA</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS APLICADAS</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>JAIRO NEMESIO</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>KELLY ITZEL</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>REALIZA INSTALACIONES ELÉCTRICAS</t>
+  </si>
+  <si>
+    <t>ASCENCION</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>CEREZO</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>REYNA ARISBETH</t>
+  </si>
+  <si>
+    <t>KITZIA YAMILET</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>AMADA ARELY</t>
+  </si>
+  <si>
+    <t>SILVIA ANGELICA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>MACHORRO</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>XOCHITL JOSELINE</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>GERMAN ERNESTO</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>ARIZMENDI</t>
+  </si>
+  <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>ISAAC ALESSANDRO</t>
+  </si>
+  <si>
+    <t>KARLA IRAN</t>
+  </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>LUIS ARIEL</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>INGLÉS IV</t>
+  </si>
+  <si>
+    <t>FÍSICA I</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>CARMONA</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>MELISSA VIANNEY</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS</t>
+  </si>
+  <si>
+    <t>JOANNA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>CARLO HUMBERTO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>JESUS ARMANDO</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO</t>
+  </si>
+  <si>
+    <t>CRUZ JESUS</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>IRVING URIEL</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>JOSE ABRAHAM</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>DIANA ARELI</t>
-  </si>
-  <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>QUÍMICA II</t>
-  </si>
-  <si>
-    <t>LECTURA, EXPRESIÓN ORAL Y ESCRITA II</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>CAMARILLO</t>
-  </si>
-  <si>
-    <t>LASTRE</t>
-  </si>
-  <si>
-    <t>MARIANO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>PLIEGO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SORIA</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>VANELY JUDITH</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>ATENEA</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>LISBETH ESMERALDA</t>
-  </si>
-  <si>
-    <t>VICTOR GAMALIEL</t>
-  </si>
-  <si>
-    <t>LAILA MANE</t>
-  </si>
-  <si>
-    <t>ANGEL EMMANUEL</t>
-  </si>
-  <si>
-    <t>JESUS URIEL</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>TOMA MUESTRAS BIOLÓGICAS</t>
-  </si>
-  <si>
-    <t>PREPARA SOLUCIONES PARA LAS OPERACIONES BÁSICAS DEL LABORATORIO</t>
-  </si>
-  <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ANGELA MONTSERRAT</t>
-  </si>
-  <si>
-    <t>CONSTRUYE ALGORITMOS PARA LA SOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>ELELYN IVETH</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>EDGAR RAMSES</t>
-  </si>
-  <si>
-    <t>ELABORA ESTRATEGIAS PARA REALIZAR LAS ACTIVIDADES DE SU ÁREA</t>
-  </si>
-  <si>
-    <t>DISTINGUE LOS DIFERENTES TIPOS DE EMPRESA POR SU GIRO, ÁREAS FUNCIONALES, DOCUMENTACIÓN ADMINISTRATIVA Y RECURSOS</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>AMERICA MICHELLE</t>
-  </si>
-  <si>
-    <t>ARIADNA</t>
-  </si>
-  <si>
-    <t>LUZ CLARA</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>ARANTZA</t>
-  </si>
-  <si>
-    <t>NAOMI</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>TELLO</t>
-  </si>
-  <si>
-    <t>VALDERRAMA</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>YAMIL ELIEL</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>FERNANDO DE JESUS</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
-    <t>CÁLCULO DIFERENCIAL</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>AYELEN</t>
-  </si>
-  <si>
-    <t>FRANCISCO EMMANUEL</t>
-  </si>
-  <si>
-    <t>CINTHIA</t>
-  </si>
-  <si>
-    <t>MARLENE</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE ROJA</t>
-  </si>
-  <si>
-    <t>ECOLOGÍA</t>
-  </si>
-  <si>
-    <t>GARIBAY</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>DANTE GAMALIEL</t>
-  </si>
-  <si>
-    <t>ABDIEL ANTONIO</t>
-  </si>
-  <si>
-    <t>URIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>DAMARIS JABNEL</t>
-  </si>
-  <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>EVALÚA EL DESEMPEÑO DE LA ORGANIZACIÓN UTILIZANDO HERRAMIENTAS DE CALIDAD</t>
-  </si>
-  <si>
-    <t>ASISTE EN LAS ACTIVIDADES DE CAPACITACIÓN PARA EL DESARROLLO DEL CAPITAL HUMANO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>CITLAHUA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>AVELINO</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>ZENON</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>RAUL ARTURO</t>
-  </si>
-  <si>
-    <t>JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
-    <t>AXEL</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>JOSE ALONSO</t>
-  </si>
-  <si>
-    <t>LUIS MARIO</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>ANGEL JOHAN</t>
-  </si>
-  <si>
-    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTROMAGNÉTICO</t>
-  </si>
-  <si>
-    <t>GROTH</t>
-  </si>
-  <si>
-    <t>GUILLEN</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>MORO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>DENISSE</t>
-  </si>
-  <si>
-    <t>JOSE GUILLERMO</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS INMUNOLÓGICOS</t>
-  </si>
-  <si>
-    <t>REALIZA ANÁLISIS CITOQUÍMICOS A LÍQUIDOS Y SECRECIONES CORPORALES</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>EDGAR ARMANDO</t>
-  </si>
-  <si>
-    <t>PROBABILIDAD Y ESTADÍSTICA</t>
-  </si>
-  <si>
-    <t>ALDUCIN</t>
-  </si>
-  <si>
-    <t>UZZIEL</t>
-  </si>
-  <si>
-    <t>ALEX</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS APLICADAS</t>
-  </si>
-  <si>
-    <t>TEMAS DE FÍSICA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>JAIRO NEMESIO</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>KELLY ITZEL</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CANUTO</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
   </si>
   <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>SALAS</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>VICTOR GAEL</t>
-  </si>
-  <si>
-    <t>ALDIR ADALBERTO</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>NORKYS AIRY</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>DULIAM</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAHIR</t>
-  </si>
-  <si>
-    <t>SAID ANDRES</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>GEOMETRÍA Y TRIGONOMETRÍA</t>
-  </si>
-  <si>
-    <t>REALIZA INSTALACIONES ELÉCTRICAS</t>
-  </si>
-  <si>
-    <t>ASCENCION</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>REYNA ARISBETH</t>
-  </si>
-  <si>
-    <t>DULCE FERNANDA</t>
-  </si>
-  <si>
-    <t>KITZIA YAMILET</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS</t>
-  </si>
-  <si>
-    <t>SHADAI COSTANTIN</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>AMADA ARELY</t>
-  </si>
-  <si>
-    <t>BENITEZ</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>GERMAN ERNESTO</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>CONSTANZA XIMENA</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>SURISADAY</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>ARIZMENDI</t>
-  </si>
-  <si>
-    <t>COSCAHUA</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>NUÑEZ</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>ISAAC ALESSANDRO</t>
-  </si>
-  <si>
-    <t>KARLA IRAN</t>
-  </si>
-  <si>
-    <t>EUSEBIO</t>
-  </si>
-  <si>
-    <t>ALMA LIZETH</t>
-  </si>
-  <si>
-    <t>LUIS ARIEL</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>FÍSICA I</t>
-  </si>
-  <si>
-    <t>INGLÉS IV</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>CARMONA</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>MELISSA VIANNEY</t>
-  </si>
-  <si>
-    <t>ESDRAS ALAN</t>
-  </si>
-  <si>
-    <t>ALLISSON NICOLE</t>
-  </si>
-  <si>
-    <t>ROBERTO JESUS</t>
-  </si>
-  <si>
-    <t>JOANNA GUADALUPE</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>XOLIO</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>CARLO HUMBERTO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>ANDREA YAMILET</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>HERSON ELIAS</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>CIELO IVETTE</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>ESPARZA</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
     <t>SANTOS</t>
   </si>
   <si>
@@ -1179,43 +1146,22 @@
     <t>VALENTIN</t>
   </si>
   <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>JULIO GABRIEL</t>
-  </si>
-  <si>
-    <t>DIEGO ABDEL JARIN</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>JESUS JOAN</t>
-  </si>
-  <si>
-    <t>RICARDO ISIDRO</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>SANTILLANA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
   </si>
   <si>
     <t>VASQUEZ</t>
@@ -1239,9 +1185,6 @@
     <t>JULIAN ALDAHIR</t>
   </si>
   <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
     <t>ROMAN</t>
   </si>
   <si>
@@ -1260,7 +1203,7 @@
     <t>BUSTAMANTE</t>
   </si>
   <si>
-    <t>MACARIO</t>
+    <t>CRISTIAN FELIPE</t>
   </si>
   <si>
     <t>JOSE ANTONIO</t>
@@ -1272,9 +1215,6 @@
     <t>YULENNY</t>
   </si>
   <si>
-    <t>PAUL ENRIQUE</t>
-  </si>
-  <si>
     <t>URI YAEL</t>
   </si>
   <si>
@@ -1291,9 +1231,6 @@
   </si>
   <si>
     <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>CORTES</t>
   </si>
   <si>
     <t>VELASCO</t>
@@ -1666,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1694,159 +1631,159 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920016</v>
+        <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920016</v>
+        <v>20330051920005</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920021</v>
+        <v>20330051920008</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920026</v>
+        <v>20330051920008</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920026</v>
+        <v>20330051920016</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920030</v>
+        <v>20330051920018</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920033</v>
+        <v>20330051920018</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920033</v>
+        <v>20330051920024</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1854,79 +1791,79 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920035</v>
+        <v>20330051920024</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920035</v>
+        <v>20330051920025</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920037</v>
+        <v>20330051920025</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920037</v>
+        <v>20330051920026</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1934,42 +1871,122 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920362</v>
+        <v>20330051920031</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920362</v>
+        <v>20330051920031</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>20330051920035</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20330051920038</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="F15">
-        <v>-1</v>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>20330051920038</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20330051920362</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2010,16 +2027,16 @@
         <v>19330051920128</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2030,16 +2047,16 @@
         <v>19330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2050,16 +2067,16 @@
         <v>19330051920139</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2070,16 +2087,16 @@
         <v>19330051920141</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2090,16 +2107,16 @@
         <v>19330051920424</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2110,16 +2127,16 @@
         <v>19330051920424</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2130,16 +2147,16 @@
         <v>19330051920431</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2150,16 +2167,16 @@
         <v>19330051920431</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2172,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,16 +2220,16 @@
         <v>19330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2223,16 +2240,16 @@
         <v>19330051920091</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2240,19 +2257,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920091</v>
+        <v>19330051920098</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2260,19 +2277,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920098</v>
+        <v>19330051920099</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2280,19 +2297,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920099</v>
+        <v>19330051920105</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2300,19 +2317,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920105</v>
+        <v>19330051920109</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2320,19 +2337,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920109</v>
+        <v>19330051920112</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2340,19 +2357,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920109</v>
+        <v>19330051920113</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2360,19 +2377,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920112</v>
+        <v>19330051920118</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2380,19 +2397,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920113</v>
+        <v>19330051920119</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2400,19 +2417,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920113</v>
+        <v>19330051920120</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2420,19 +2437,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920118</v>
+        <v>19330051920124</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2440,121 +2457,21 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920119</v>
+        <v>19330051920457</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920457</v>
-      </c>
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920457</v>
-      </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19">
         <v>5</v>
       </c>
     </row>
@@ -2596,16 +2513,16 @@
         <v>19330051920194</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2616,16 +2533,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2636,16 +2553,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2656,16 +2573,16 @@
         <v>19330051920201</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2676,16 +2593,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2696,16 +2613,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2718,7 +2635,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2741,26 +2658,6 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>18330051920152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2">
         <v>5</v>
       </c>
     </row>
@@ -2835,16 +2732,16 @@
         <v>18330051920370</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2855,16 +2752,16 @@
         <v>18330051920370</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2875,16 +2772,16 @@
         <v>18330051920371</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2895,16 +2792,16 @@
         <v>18330051920371</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2948,16 +2845,16 @@
         <v>18330051920219</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2968,16 +2865,16 @@
         <v>18330051920225</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2988,16 +2885,16 @@
         <v>18330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3008,16 +2905,16 @@
         <v>18330051920227</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3061,16 +2958,16 @@
         <v>17330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3116,7 +3013,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3147,16 +3044,16 @@
         <v>20330051920059</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3167,16 +3064,16 @@
         <v>20330051920059</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3184,39 +3081,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920061</v>
+        <v>20330051920070</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920063</v>
+        <v>20330051920070</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3224,39 +3121,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920063</v>
+        <v>20330051920071</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920065</v>
+        <v>20330051920072</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3264,19 +3161,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920068</v>
+        <v>20330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3284,19 +3181,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920069</v>
+        <v>20330051920080</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3304,19 +3201,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920070</v>
+        <v>20330051920084</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3324,59 +3221,59 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920070</v>
+        <v>20330051920084</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920071</v>
+        <v>20330051920089</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920071</v>
+        <v>20330051920090</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3384,461 +3281,21 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920073</v>
+        <v>20330051920092</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920073</v>
-      </c>
-      <c r="B15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920074</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E16" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>20330051920074</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>20330051920077</v>
-      </c>
-      <c r="B18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>20330051920077</v>
-      </c>
-      <c r="B19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>20330051920078</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>259</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20330051920078</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>20330051920080</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>20330051920080</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>20330051920081</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" t="s">
-        <v>268</v>
-      </c>
-      <c r="F24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20330051920081</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>20330051920082</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20330051920082</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" t="s">
-        <v>268</v>
-      </c>
-      <c r="F27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>20330051920084</v>
-      </c>
-      <c r="B28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>20330051920084</v>
-      </c>
-      <c r="B29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" t="s">
-        <v>262</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>20330051920089</v>
-      </c>
-      <c r="B30" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30" t="s">
-        <v>268</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>20330051920089</v>
-      </c>
-      <c r="B31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920090</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20330051920092</v>
-      </c>
-      <c r="B33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>20330051920092</v>
-      </c>
-      <c r="B34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920093</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920386</v>
-      </c>
-      <c r="B36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36">
         <v>5</v>
       </c>
     </row>
@@ -3849,7 +3306,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3877,19 +3334,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920220</v>
+        <v>20330051920233</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -3897,19 +3354,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920222</v>
+        <v>20330051920237</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3917,19 +3374,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920233</v>
+        <v>20330051920237</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3937,19 +3394,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920237</v>
+        <v>20330051920243</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3957,19 +3414,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920237</v>
+        <v>20330051920247</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3977,39 +3434,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920240</v>
+        <v>20330051920251</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920243</v>
+        <v>20330051920259</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4017,141 +3474,21 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920244</v>
+        <v>20330051920374</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920247</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920251</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920251</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920374</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15">
         <v>5</v>
       </c>
     </row>
@@ -4162,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4193,16 +3530,16 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4210,39 +3547,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920190</v>
+        <v>20330051920194</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920193</v>
+        <v>20330051920213</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4250,39 +3587,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920194</v>
+        <v>20330051920215</v>
       </c>
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
         <v>271</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>277</v>
-      </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920196</v>
+        <v>20330051920215</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -4290,81 +3627,21 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920203</v>
+        <v>20330051920392</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920214</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10">
         <v>5</v>
       </c>
     </row>
@@ -4375,7 +3652,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4403,102 +3680,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920264</v>
+        <v>20330051920267</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920267</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4508,7 +3725,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4539,16 +3756,16 @@
         <v>18202030110266</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4556,22 +3773,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18202030110266</v>
+        <v>20330051920117</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4579,16 +3796,16 @@
         <v>20330051920122</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4599,16 +3816,16 @@
         <v>20330051920122</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -4616,142 +3833,62 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920131</v>
+        <v>20330051920134</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920134</v>
+        <v>20330051920141</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920134</v>
+        <v>20330051920141</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920137</v>
-      </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920151</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +3898,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4792,16 +3929,16 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4809,81 +3946,41 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920321</v>
+        <v>20330051920328</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920325</v>
+        <v>20330051920328</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920328</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920328</v>
-      </c>
-      <c r="B6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
         <v>5</v>
       </c>
     </row>
@@ -4925,19 +4022,19 @@
         <v>18330051920022</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4945,19 +4042,19 @@
         <v>18330051920022</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4965,16 +4062,16 @@
         <v>19330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -4985,16 +4082,16 @@
         <v>19330051920042</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5005,16 +4102,16 @@
         <v>19330051920045</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -5025,16 +4122,16 @@
         <v>19330051920046</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5045,19 +4142,19 @@
         <v>19330051920049</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5065,19 +4162,19 @@
         <v>19330051920049</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5085,16 +4182,16 @@
         <v>19330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -5105,16 +4202,16 @@
         <v>19330051920050</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5125,16 +4222,16 @@
         <v>19330051920067</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -5145,16 +4242,16 @@
         <v>19330051920074</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5165,16 +4262,16 @@
         <v>19330051920418</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -5187,7 +4284,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5218,16 +4315,16 @@
         <v>19330051920271</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5238,16 +4335,16 @@
         <v>19330051920271</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5258,16 +4355,16 @@
         <v>19330051920273</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5275,19 +4372,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920273</v>
+        <v>19330051920420</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5295,19 +4392,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920343</v>
+        <v>19330051920420</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -5315,61 +4412,21 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920420</v>
+        <v>19330051920442</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920420</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920442</v>
-      </c>
-      <c r="B9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9">
         <v>5</v>
       </c>
     </row>
@@ -5380,7 +4437,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5411,16 +4468,16 @@
         <v>19330051920308</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5428,19 +4485,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920308</v>
+        <v>19330051920321</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -5448,19 +4505,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920321</v>
+        <v>19330051920327</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -5468,19 +4525,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920321</v>
+        <v>19330051920327</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -5491,16 +4548,16 @@
         <v>19330051920334</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5508,19 +4565,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920334</v>
+        <v>19330051920339</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5528,19 +4585,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920338</v>
+        <v>19330051920339</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5548,19 +4605,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920342</v>
+        <v>19330051920340</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5568,19 +4625,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920342</v>
+        <v>19330051920340</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -5588,19 +4645,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920350</v>
+        <v>19330051920342</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5608,19 +4665,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920350</v>
+        <v>19330051920347</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -5628,19 +4685,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920352</v>
+        <v>19330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -5648,19 +4705,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920352</v>
+        <v>19330051920350</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -5668,19 +4725,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920353</v>
+        <v>19330051920352</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -5691,16 +4748,16 @@
         <v>19330051920354</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -5708,19 +4765,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920440</v>
+        <v>19330051920445</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -5728,19 +4785,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920445</v>
+        <v>19330051920450</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -5748,21 +4805,61 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920445</v>
+        <v>19330051920450</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19330051920453</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
         <v>327</v>
       </c>
-      <c r="F19">
+      <c r="D20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>19330051920453</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21">
         <v>-1</v>
       </c>
     </row>
@@ -5804,16 +4901,16 @@
         <v>18330051920097</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5824,19 +4921,19 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5844,19 +4941,19 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5864,16 +4961,16 @@
         <v>19330051920367</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5884,16 +4981,16 @@
         <v>19330051920374</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5904,16 +5001,16 @@
         <v>19330051920382</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5924,16 +5021,16 @@
         <v>19330051920383</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5944,16 +5041,16 @@
         <v>19330051920386</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5964,16 +5061,16 @@
         <v>19330051920386</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -5984,16 +5081,16 @@
         <v>19330051920391</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -6004,16 +5101,16 @@
         <v>19330051920396</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -6024,16 +5121,16 @@
         <v>19330051920399</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -6044,16 +5141,16 @@
         <v>19330051920399</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -6064,16 +5161,16 @@
         <v>19330051920427</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -6085,6 +5182,119 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>19330051920247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>19330051920261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>19330051920265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>19330051920412</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -6114,159 +5324,159 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920246</v>
+        <v>16330051920566</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920252</v>
+        <v>17330051920278</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920252</v>
+        <v>17330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920259</v>
+        <v>17330051920418</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920264</v>
+        <v>17330051920418</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920264</v>
+        <v>17330051920483</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920408</v>
+        <v>17330051920483</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920408</v>
+        <v>18330051920016</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -6274,59 +5484,59 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920409</v>
+        <v>18330051920032</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920409</v>
+        <v>18330051920032</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920433</v>
+        <v>18330051920037</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -6334,22 +5544,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920433</v>
+        <v>18330051920037</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6357,9 +5567,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6387,19 +5597,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>16330051920566</v>
+        <v>20330051920337</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6407,19 +5617,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>17330051920278</v>
+        <v>20330051920340</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6427,19 +5637,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>17330051920278</v>
+        <v>20330051920342</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6447,19 +5657,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>17330051920418</v>
+        <v>20330051920342</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6467,19 +5677,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>17330051920418</v>
+        <v>20330051920349</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6487,19 +5697,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920016</v>
+        <v>20330051920355</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6507,19 +5717,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920032</v>
+        <v>20330051920356</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6527,195 +5737,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920032</v>
+        <v>20330051920383</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" t="s">
-        <v>219</v>
-      </c>
       <c r="F9">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>18330051920037</v>
-      </c>
-      <c r="B10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>18330051920037</v>
-      </c>
-      <c r="B11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920340</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920342</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920349</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920355</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920383</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -6756,16 +5793,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6778,7 +5815,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6806,39 +5843,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920116</v>
+        <v>18330051920112</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920120</v>
+        <v>18330051920112</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6846,59 +5883,59 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920128</v>
+        <v>18330051920120</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>407</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6906,121 +5943,161 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920132</v>
+        <v>18330051920127</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920135</v>
+        <v>18330051920127</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920135</v>
+        <v>18330051920128</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920442</v>
+        <v>18330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920442</v>
+        <v>18330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <v>18330051920442</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>18330051920442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>18330051920455</v>
       </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12">
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14">
         <v>-1</v>
       </c>
     </row>
@@ -7062,16 +6139,16 @@
         <v>17330051920334</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7082,16 +6159,16 @@
         <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7102,16 +6179,16 @@
         <v>18330051920108</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7155,16 +6232,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7175,16 +6252,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7195,19 +6272,19 @@
         <v>18330051920041</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7215,19 +6292,19 @@
         <v>18330051920041</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7235,16 +6312,16 @@
         <v>18330051920053</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7255,16 +6332,16 @@
         <v>18330051920066</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7276,372 +6353,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920178</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920183</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920306</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920373</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920039</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920052</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920052</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920055</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920097</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7671,19 +6382,505 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
+        <v>20330051920168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20330051920168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>20330051920177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>20330051920177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20330051920178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>20330051920183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20330051920183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>20330051920306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>20330051920373</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>20330051920039</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20330051920052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>20330051920052</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>20330051920097</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20330051920098</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>20330051920098</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20330051920107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>20330051920109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>20330051920366</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>20330051920366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20330051920367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20330051920367</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>20330051920286</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7694,16 +6891,16 @@
         <v>20330051920297</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7711,19 +6908,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920297</v>
+        <v>20330051920298</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7731,19 +6928,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920305</v>
+        <v>20330051920298</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7751,19 +6948,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920305</v>
+        <v>20330051920303</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7771,39 +6968,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920307</v>
+        <v>20330051920303</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920310</v>
+        <v>20330051920305</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7811,19 +7008,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920310</v>
+        <v>20330051920305</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7831,21 +7028,61 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920312</v>
+        <v>20330051920307</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>20330051920310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20330051920310</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
     </row>
@@ -7887,16 +7124,16 @@
         <v>19330051920007</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7907,16 +7144,16 @@
         <v>19330051920010</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7927,16 +7164,16 @@
         <v>19330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7947,16 +7184,16 @@
         <v>19330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7967,16 +7204,16 @@
         <v>19330051920026</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7987,16 +7224,16 @@
         <v>19330051920032</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8007,16 +7244,16 @@
         <v>19330051920033</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8027,16 +7264,16 @@
         <v>19330051920036</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8047,16 +7284,16 @@
         <v>19330051920417</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -8067,16 +7304,16 @@
         <v>19330051920422</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8120,16 +7357,16 @@
         <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8140,16 +7377,16 @@
         <v>19330051920155</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8160,16 +7397,16 @@
         <v>19330051920155</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8180,16 +7417,16 @@
         <v>19330051920163</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8200,16 +7437,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8220,16 +7457,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8242,7 +7479,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8270,19 +7507,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920231</v>
+        <v>19330051920224</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8290,19 +7527,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920233</v>
+        <v>19330051920231</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8310,19 +7547,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920241</v>
+        <v>19330051920233</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8333,16 +7570,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" t="s">
-        <v>139</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8350,19 +7587,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920243</v>
+        <v>19330051920241</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8373,16 +7610,16 @@
         <v>19330051920243</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8390,19 +7627,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920425</v>
+        <v>19330051920243</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8413,16 +7650,16 @@
         <v>19330051920425</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8430,21 +7667,41 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
+        <v>19330051920425</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>19330051920429</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
     </row>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="397">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -246,9 +246,6 @@
     <t>NAMIGTLE</t>
   </si>
   <si>
-    <t>URBANO</t>
-  </si>
-  <si>
     <t>VERA</t>
   </si>
   <si>
@@ -279,18 +276,12 @@
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
     <t>MARITZA</t>
   </si>
   <si>
     <t>ANGELA MONTSERRAT</t>
   </si>
   <si>
-    <t>CONSTRUYE ALGORITMOS PARA LA SOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
     <t>HUESCA</t>
   </si>
   <si>
@@ -744,481 +735,481 @@
     <t>ALEX</t>
   </si>
   <si>
+    <t>MATEMÁTICAS APLICADAS</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>JAIRO NEMESIO</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD Y ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>KELLY ITZEL</t>
+  </si>
+  <si>
+    <t>DAVID ELISEO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>REALIZA INSTALACIONES ELÉCTRICAS</t>
+  </si>
+  <si>
+    <t>ASCENCION</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>CEREZO</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>REYNA ARISBETH</t>
+  </si>
+  <si>
+    <t>DULCE FERNANDA</t>
+  </si>
+  <si>
+    <t>KITZIA YAMILET</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>AMADA ARELY</t>
+  </si>
+  <si>
+    <t>SILVIA ANGELICA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>MACHORRO</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>XOCHITL JOSELINE</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>GERMAN ERNESTO</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>IBAÑEZ</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>ARIZMENDI</t>
+  </si>
+  <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>ISAAC ALESSANDRO</t>
+  </si>
+  <si>
+    <t>KARLA IRAN</t>
+  </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>LUIS ARIEL</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>INGLÉS IV</t>
+  </si>
+  <si>
+    <t>FÍSICA I</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>CARMONA</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>MELISSA VIANNEY</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS</t>
+  </si>
+  <si>
+    <t>JOANNA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>CARLO HUMBERTO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>JESUS ARMANDO</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO</t>
+  </si>
+  <si>
+    <t>CRUZ JESUS</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>LUIS HUGO</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>ITZEL ISABEL</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>DEL CAMPO</t>
+  </si>
+  <si>
+    <t>EDDER GUSTAVO</t>
+  </si>
+  <si>
+    <t>RICARDO MOISES</t>
+  </si>
+  <si>
+    <t>JULIAN ALDAHIR</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TEMAS DE FILOSOFÍA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>CRISTIAN FELIPE</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
+    <t>DIEGO BERSAIN</t>
+  </si>
+  <si>
     <t>TEMAS DE FÍSICA</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS APLICADAS</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>JAIRO NEMESIO</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA ECONOMÍA</t>
-  </si>
-  <si>
-    <t>PROBABILIDAD Y ESTADÍSTICA</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>KELLY ITZEL</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CANUTO</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>PAUL ARAVIER</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>REALIZA INSTALACIONES ELÉCTRICAS</t>
-  </si>
-  <si>
-    <t>ASCENCION</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>CEREZO</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>REYNA ARISBETH</t>
-  </si>
-  <si>
-    <t>KITZIA YAMILET</t>
-  </si>
-  <si>
-    <t>SUSANA</t>
-  </si>
-  <si>
-    <t>AMADA ARELY</t>
-  </si>
-  <si>
-    <t>SILVIA ANGELICA</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>XOCHITL JOSELINE</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>GERMAN ERNESTO</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>ARIZMENDI</t>
-  </si>
-  <si>
-    <t>COSCAHUA</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>NUÑEZ</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>ISAAC ALESSANDRO</t>
-  </si>
-  <si>
-    <t>KARLA IRAN</t>
-  </si>
-  <si>
-    <t>EUSEBIO</t>
-  </si>
-  <si>
-    <t>ALMA LIZETH</t>
-  </si>
-  <si>
-    <t>LUIS ARIEL</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>INGLÉS IV</t>
-  </si>
-  <si>
-    <t>FÍSICA I</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>CARMONA</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>MELISSA VIANNEY</t>
-  </si>
-  <si>
-    <t>ESDRAS ALAN</t>
-  </si>
-  <si>
-    <t>ROBERTO JESUS</t>
-  </si>
-  <si>
-    <t>JOANNA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>CARLO HUMBERTO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>JOSHUA</t>
-  </si>
-  <si>
-    <t>ANDREA YAMILET</t>
-  </si>
-  <si>
-    <t>JESUS ARMANDO</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO</t>
-  </si>
-  <si>
-    <t>CRUZ JESUS</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>ESPARZA</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>VERGEL</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>LUIS HUGO</t>
-  </si>
-  <si>
-    <t>NOE</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>MANI</t>
-  </si>
-  <si>
-    <t>SANTILLANA</t>
-  </si>
-  <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>DEL CAMPO</t>
-  </si>
-  <si>
-    <t>EDDER GUSTAVO</t>
-  </si>
-  <si>
-    <t>RICARDO MOISES</t>
-  </si>
-  <si>
-    <t>JULIAN ALDAHIR</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TEMAS DE FILOSOFÍA</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>MANZANET</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>CRISTIAN FELIPE</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>YULENNY</t>
-  </si>
-  <si>
-    <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>DIEGO BERSAIN</t>
   </si>
   <si>
     <t>CORDOBA</t>
@@ -2027,16 +2018,16 @@
         <v>19330051920128</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2047,16 +2038,16 @@
         <v>19330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2067,16 +2058,16 @@
         <v>19330051920139</v>
       </c>
       <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
         <v>177</v>
       </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2087,16 +2078,16 @@
         <v>19330051920141</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2107,16 +2098,16 @@
         <v>19330051920424</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2127,16 +2118,16 @@
         <v>19330051920424</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
         <v>186</v>
-      </c>
-      <c r="E7" t="s">
-        <v>189</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2147,16 +2138,16 @@
         <v>19330051920431</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2167,16 +2158,16 @@
         <v>19330051920431</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2220,16 +2211,16 @@
         <v>19330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2240,16 +2231,16 @@
         <v>19330051920091</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2260,16 +2251,16 @@
         <v>19330051920098</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2280,16 +2271,16 @@
         <v>19330051920099</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2303,13 +2294,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2320,16 +2311,16 @@
         <v>19330051920109</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2343,13 +2334,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2363,13 +2354,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2380,16 +2371,16 @@
         <v>19330051920118</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2400,16 +2391,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2420,16 +2411,16 @@
         <v>19330051920120</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2443,13 +2434,13 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2460,16 +2451,16 @@
         <v>19330051920457</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2513,16 +2504,16 @@
         <v>19330051920194</v>
       </c>
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2533,16 +2524,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2553,16 +2544,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
         <v>217</v>
       </c>
-      <c r="C4" t="s">
-        <v>220</v>
-      </c>
       <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
         <v>224</v>
-      </c>
-      <c r="E4" t="s">
-        <v>227</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2573,16 +2564,16 @@
         <v>19330051920201</v>
       </c>
       <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
         <v>218</v>
       </c>
-      <c r="C5" t="s">
-        <v>221</v>
-      </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2593,16 +2584,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2613,16 +2604,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2701,7 +2692,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2732,16 +2723,16 @@
         <v>18330051920370</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2749,61 +2740,21 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920370</v>
+        <v>18330051920371</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" t="s">
-        <v>233</v>
-      </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>18330051920371</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>18330051920371</v>
-      </c>
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5">
         <v>5</v>
       </c>
     </row>
@@ -2845,16 +2796,16 @@
         <v>18330051920219</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -2865,16 +2816,16 @@
         <v>18330051920225</v>
       </c>
       <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2885,16 +2836,16 @@
         <v>18330051920225</v>
       </c>
       <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
         <v>234</v>
       </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>238</v>
-      </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2905,16 +2856,16 @@
         <v>18330051920227</v>
       </c>
       <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" t="s">
-        <v>240</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2927,7 +2878,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2958,18 +2909,58 @@
         <v>17330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>18330051920417</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>18330051920417</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
@@ -3044,13 +3035,13 @@
         <v>20330051920059</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -3064,13 +3055,13 @@
         <v>20330051920059</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3084,16 +3075,16 @@
         <v>20330051920070</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3104,16 +3095,16 @@
         <v>20330051920070</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3124,13 +3115,13 @@
         <v>20330051920071</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -3144,16 +3135,16 @@
         <v>20330051920072</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3164,13 +3155,13 @@
         <v>20330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -3187,10 +3178,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -3204,16 +3195,16 @@
         <v>20330051920084</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3224,16 +3215,16 @@
         <v>20330051920084</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3244,13 +3235,13 @@
         <v>20330051920089</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -3267,13 +3258,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3284,13 +3275,13 @@
         <v>20330051920092</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -3499,7 +3490,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3530,13 +3521,13 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -3547,19 +3538,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920194</v>
+        <v>20330051920193</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3567,16 +3558,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920213</v>
+        <v>20330051920194</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>267</v>
-      </c>
-      <c r="D4" t="s">
-        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -3587,19 +3578,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920215</v>
+        <v>20330051920194</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3607,19 +3598,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920215</v>
+        <v>20330051920213</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3627,21 +3618,81 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>20330051920215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20330051920215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>20330051920392</v>
       </c>
-      <c r="B7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>20330051920392</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
     </row>
@@ -3683,13 +3734,13 @@
         <v>20330051920264</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
         <v>274</v>
-      </c>
-      <c r="D2" t="s">
-        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -3706,10 +3757,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
         <v>275</v>
-      </c>
-      <c r="D3" t="s">
-        <v>277</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -3756,13 +3807,13 @@
         <v>18202030110266</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -3776,13 +3827,13 @@
         <v>20330051920117</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -3796,16 +3847,16 @@
         <v>20330051920122</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3816,16 +3867,16 @@
         <v>20330051920122</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3836,13 +3887,13 @@
         <v>20330051920134</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -3856,16 +3907,16 @@
         <v>20330051920141</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -3876,16 +3927,16 @@
         <v>20330051920141</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3898,7 +3949,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3932,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" t="s">
         <v>289</v>
-      </c>
-      <c r="D2" t="s">
-        <v>290</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -3949,13 +4000,13 @@
         <v>20330051920328</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3969,18 +4020,38 @@
         <v>20330051920328</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>20330051920397</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
@@ -4025,7 +4096,7 @@
         <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
         <v>301</v>
@@ -4045,7 +4116,7 @@
         <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
         <v>301</v>
@@ -4091,7 +4162,7 @@
         <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -4102,7 +4173,7 @@
         <v>19330051920045</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -4111,7 +4182,7 @@
         <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -4131,7 +4202,7 @@
         <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4151,7 +4222,7 @@
         <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -4185,7 +4256,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>306</v>
@@ -4205,13 +4276,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4222,7 +4293,7 @@
         <v>19330051920067</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>299</v>
@@ -4231,7 +4302,7 @@
         <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -4242,16 +4313,16 @@
         <v>19330051920074</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
         <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -4271,7 +4342,7 @@
         <v>309</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -4324,7 +4395,7 @@
         <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4344,7 +4415,7 @@
         <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4364,7 +4435,7 @@
         <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -4375,7 +4446,7 @@
         <v>19330051920420</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>316</v>
@@ -4384,7 +4455,7 @@
         <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -4395,7 +4466,7 @@
         <v>19330051920420</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>316</v>
@@ -4404,7 +4475,7 @@
         <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -4424,7 +4495,7 @@
         <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4491,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
         <v>332</v>
@@ -4508,7 +4579,7 @@
         <v>19330051920327</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>327</v>
@@ -4528,7 +4599,7 @@
         <v>19330051920327</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>327</v>
@@ -4611,7 +4682,7 @@
         <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>335</v>
@@ -4631,7 +4702,7 @@
         <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>335</v>
@@ -4648,7 +4719,7 @@
         <v>19330051920342</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>329</v>
@@ -4668,7 +4739,7 @@
         <v>19330051920347</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>330</v>
@@ -4688,7 +4759,7 @@
         <v>19330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>330</v>
@@ -4708,10 +4779,10 @@
         <v>19330051920350</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
         <v>338</v>
@@ -4734,7 +4805,7 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>311</v>
@@ -4771,7 +4842,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
         <v>340</v>
@@ -4791,7 +4862,7 @@
         <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>341</v>
@@ -4811,7 +4882,7 @@
         <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>341</v>
@@ -4828,13 +4899,13 @@
         <v>19330051920453</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>327</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E20" t="s">
         <v>311</v>
@@ -4848,13 +4919,13 @@
         <v>19330051920453</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>327</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" t="s">
         <v>310</v>
@@ -4870,7 +4941,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4901,7 +4972,7 @@
         <v>18330051920097</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -4930,7 +5001,7 @@
         <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4964,13 +5035,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -4981,13 +5052,13 @@
         <v>19330051920374</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>311</v>
@@ -5030,7 +5101,7 @@
         <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5098,19 +5169,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920396</v>
+        <v>19330051920393</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>363</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -5118,53 +5189,53 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920399</v>
+        <v>19330051920393</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920399</v>
+        <v>19330051920396</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920427</v>
+        <v>19330051920399</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
         <v>365</v>
@@ -5173,6 +5244,46 @@
         <v>311</v>
       </c>
       <c r="F15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>19330051920399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>19330051920427</v>
+      </c>
+      <c r="B17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17">
         <v>-1</v>
       </c>
     </row>
@@ -5183,7 +5294,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5209,86 +5320,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920265</v>
-      </c>
-      <c r="B4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920412</v>
-      </c>
-      <c r="B5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5296,7 +5327,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5324,19 +5355,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>16330051920566</v>
+        <v>17330051920278</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5350,13 +5381,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5364,19 +5395,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>17330051920278</v>
+        <v>17330051920418</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5387,16 +5418,16 @@
         <v>17330051920418</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5404,19 +5435,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>17330051920418</v>
+        <v>17330051920483</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -5424,19 +5455,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>17330051920483</v>
+        <v>18330051920016</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>344</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5444,19 +5475,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17330051920483</v>
+        <v>18330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5464,19 +5495,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920016</v>
+        <v>18330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -5484,19 +5515,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920032</v>
+        <v>18330051920037</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -5504,61 +5535,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920032</v>
+        <v>18330051920037</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>18330051920037</v>
-      </c>
-      <c r="B12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>18330051920037</v>
-      </c>
-      <c r="B13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13">
         <v>5</v>
       </c>
     </row>
@@ -5569,7 +5560,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5603,10 +5594,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -5623,10 +5614,10 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -5643,13 +5634,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5663,13 +5654,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5686,7 +5677,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -5697,19 +5688,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920355</v>
+        <v>20330051920356</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -5717,41 +5708,21 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920356</v>
+        <v>20330051920383</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920383</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9">
         <v>5</v>
       </c>
     </row>
@@ -5793,16 +5764,16 @@
         <v>18330051920272</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5846,19 +5817,19 @@
         <v>18330051920112</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>387</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5866,19 +5837,19 @@
         <v>18330051920112</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5886,16 +5857,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5906,16 +5877,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -5926,16 +5897,16 @@
         <v>18330051920120</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5946,16 +5917,16 @@
         <v>18330051920127</v>
       </c>
       <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
         <v>383</v>
       </c>
-      <c r="C7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>387</v>
-      </c>
-      <c r="E7" t="s">
-        <v>232</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5966,16 +5937,16 @@
         <v>18330051920127</v>
       </c>
       <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
         <v>383</v>
       </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
-        <v>387</v>
-      </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5989,13 +5960,13 @@
         <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -6009,13 +5980,13 @@
         <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -6029,13 +6000,13 @@
         <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -6046,16 +6017,16 @@
         <v>18330051920442</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -6066,16 +6037,16 @@
         <v>18330051920442</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -6086,16 +6057,16 @@
         <v>18330051920455</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
         <v>329</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -6142,13 +6113,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6162,13 +6133,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6182,13 +6153,13 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6232,16 +6203,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6252,16 +6223,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6272,16 +6243,16 @@
         <v>18330051920041</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6292,16 +6263,16 @@
         <v>18330051920041</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6318,10 +6289,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6332,16 +6303,16 @@
         <v>18330051920066</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>326</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6385,13 +6356,13 @@
         <v>20330051920168</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6405,16 +6376,16 @@
         <v>20330051920168</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6425,13 +6396,13 @@
         <v>20330051920177</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -6445,13 +6416,13 @@
         <v>20330051920177</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -6465,16 +6436,16 @@
         <v>20330051920178</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6485,16 +6456,16 @@
         <v>20330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -6505,16 +6476,16 @@
         <v>20330051920183</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6525,16 +6496,16 @@
         <v>20330051920306</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -6545,16 +6516,16 @@
         <v>20330051920373</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6598,13 +6569,13 @@
         <v>20330051920039</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6618,13 +6589,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -6638,13 +6609,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -6661,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -6678,13 +6649,13 @@
         <v>20330051920098</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -6698,13 +6669,13 @@
         <v>20330051920098</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -6718,13 +6689,13 @@
         <v>20330051920107</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -6738,13 +6709,13 @@
         <v>20330051920109</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -6758,16 +6729,16 @@
         <v>20330051920366</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6778,16 +6749,16 @@
         <v>20330051920366</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -6798,16 +6769,16 @@
         <v>20330051920367</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -6818,16 +6789,16 @@
         <v>20330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -6871,13 +6842,13 @@
         <v>20330051920286</v>
       </c>
       <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -6897,7 +6868,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -6911,13 +6882,13 @@
         <v>20330051920298</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -6931,13 +6902,13 @@
         <v>20330051920298</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -6951,13 +6922,13 @@
         <v>20330051920303</v>
       </c>
       <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -6971,13 +6942,13 @@
         <v>20330051920303</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -6991,13 +6962,13 @@
         <v>20330051920305</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -7011,13 +6982,13 @@
         <v>20330051920305</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -7037,7 +7008,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -7051,13 +7022,13 @@
         <v>20330051920310</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -7071,13 +7042,13 @@
         <v>20330051920310</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -7124,16 +7095,16 @@
         <v>19330051920007</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7147,13 +7118,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7164,16 +7135,16 @@
         <v>19330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7184,16 +7155,16 @@
         <v>19330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7204,16 +7175,16 @@
         <v>19330051920026</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7224,16 +7195,16 @@
         <v>19330051920032</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7244,16 +7215,16 @@
         <v>19330051920033</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7264,16 +7235,16 @@
         <v>19330051920036</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
         <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7284,16 +7255,16 @@
         <v>19330051920417</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -7307,13 +7278,13 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -7357,16 +7328,16 @@
         <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7380,13 +7351,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
         <v>156</v>
-      </c>
-      <c r="E3" t="s">
-        <v>159</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7400,13 +7371,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7417,16 +7388,16 @@
         <v>19330051920163</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7437,16 +7408,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7457,16 +7428,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7510,16 +7481,16 @@
         <v>19330051920224</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7530,16 +7501,16 @@
         <v>19330051920231</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7550,16 +7521,16 @@
         <v>19330051920233</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7570,16 +7541,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7590,16 +7561,16 @@
         <v>19330051920241</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7610,16 +7581,16 @@
         <v>19330051920243</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7630,16 +7601,16 @@
         <v>19330051920243</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7650,16 +7621,16 @@
         <v>19330051920425</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7670,16 +7641,16 @@
         <v>19330051920425</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -7690,16 +7661,16 @@
         <v>19330051920429</v>
       </c>
       <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <v>5</v>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="404">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -933,6 +933,9 @@
     <t>COSCAHUA</t>
   </si>
   <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
@@ -948,6 +951,9 @@
     <t>MONTERO</t>
   </si>
   <si>
+    <t>NOGALES</t>
+  </si>
+  <si>
     <t>CANSECO</t>
   </si>
   <si>
@@ -972,24 +978,33 @@
     <t>ALEXIS YAIR</t>
   </si>
   <si>
+    <t>JUAN EFRAIN</t>
+  </si>
+  <si>
     <t>IVAN</t>
   </si>
   <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
     <t>MARTI NEFTALI</t>
   </si>
   <si>
-    <t>INGLÉS IV</t>
-  </si>
-  <si>
     <t>FÍSICA I</t>
   </si>
   <si>
+    <t>MANTIENE EN OPERACIÓN CIRCUITOS DE CONTROL ELECTRÓNICO</t>
+  </si>
+  <si>
     <t>ALONSO</t>
   </si>
   <si>
     <t>ARIAS</t>
   </si>
   <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
     <t>CARMONA</t>
   </si>
   <si>
@@ -1008,6 +1023,9 @@
     <t>ESDRAS ALAN</t>
   </si>
   <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
     <t>ROBERTO JESUS</t>
   </si>
   <si>
@@ -1017,36 +1035,51 @@
     <t>ARELLANO</t>
   </si>
   <si>
+    <t>BELLO</t>
+  </si>
+  <si>
     <t>MENDOZA</t>
   </si>
   <si>
     <t>VILLA</t>
   </si>
   <si>
+    <t>XOLIO</t>
+  </si>
+  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
     <t>MORENO</t>
   </si>
   <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
     <t>TIBURCIO</t>
   </si>
   <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>MONTERROSAS</t>
   </si>
   <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
     <t>CARLO HUMBERTO</t>
   </si>
   <si>
+    <t>JOSMAR ANTONIO</t>
+  </si>
+  <si>
     <t>IGNACIO</t>
   </si>
   <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
     <t>GABRIELA</t>
   </si>
   <si>
@@ -1059,12 +1092,12 @@
     <t>ANDREA YAMILET</t>
   </si>
   <si>
-    <t>JESUS ARMANDO</t>
-  </si>
-  <si>
     <t>ABIGAIL</t>
   </si>
   <si>
+    <t>HERSON ELIAS</t>
+  </si>
+  <si>
     <t>MISAEL</t>
   </si>
   <si>
@@ -1077,15 +1110,9 @@
     <t>BRETON</t>
   </si>
   <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
     <t>MENDEZ</t>
   </si>
   <si>
-    <t>RIOS</t>
-  </si>
-  <si>
     <t>ZARATE</t>
   </si>
   <si>
@@ -1095,21 +1122,12 @@
     <t>VICENTE</t>
   </si>
   <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>SANTOS</t>
   </si>
   <si>
     <t>AQUINO</t>
   </si>
   <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
     <t>VERGEL</t>
   </si>
   <si>
@@ -1125,18 +1143,12 @@
     <t>ZURI SADAY</t>
   </si>
   <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
     <t>FATIMA</t>
   </si>
   <si>
     <t>LUIS HUGO</t>
   </si>
   <si>
-    <t>NOE</t>
-  </si>
-  <si>
     <t>ITZEL ISABEL</t>
   </si>
   <si>
@@ -1146,6 +1158,9 @@
     <t>PAULINA</t>
   </si>
   <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
     <t>VALENTIN</t>
   </si>
   <si>
@@ -1185,9 +1200,6 @@
     <t>GIL</t>
   </si>
   <si>
-    <t>MANZANET</t>
-  </si>
-  <si>
     <t>BUSTAMANTE</t>
   </si>
   <si>
@@ -1224,10 +1236,19 @@
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
     <t>VELASCO</t>
   </si>
   <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
     <t>BRENDA</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO</t>
   </si>
   <si>
     <t>JOSUE ISAAC</t>
@@ -4062,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4099,10 +4120,10 @@
         <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -4110,22 +4131,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920022</v>
+        <v>19330051920042</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4136,30 +4157,30 @@
         <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920042</v>
+        <v>19330051920045</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
         <v>157</v>
@@ -4170,16 +4191,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920045</v>
+        <v>19330051920046</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
         <v>157</v>
@@ -4190,19 +4211,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920046</v>
+        <v>19330051920049</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4216,10 +4237,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
         <v>157</v>
@@ -4230,22 +4251,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920049</v>
+        <v>19330051920050</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4259,30 +4280,30 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920050</v>
+        <v>19330051920067</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4290,19 +4311,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920067</v>
+        <v>19330051920071</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -4319,7 +4340,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
         <v>157</v>
@@ -4330,21 +4351,61 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920418</v>
+        <v>19330051920076</v>
       </c>
       <c r="B14" t="s">
         <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
         <v>157</v>
       </c>
       <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>19330051920076</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>19330051920418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
     </row>
@@ -4355,7 +4416,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4386,13 +4447,13 @@
         <v>19330051920271</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
         <v>225</v>
@@ -4406,13 +4467,13 @@
         <v>19330051920271</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
         <v>157</v>
@@ -4426,13 +4487,13 @@
         <v>19330051920273</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
         <v>157</v>
@@ -4443,16 +4504,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
         <v>225</v>
@@ -4463,16 +4524,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920420</v>
+        <v>19330051920286</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
         <v>157</v>
@@ -4483,21 +4544,61 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>19330051920420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>19330051920420</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>19330051920442</v>
       </c>
-      <c r="B7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" t="s">
         <v>157</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>5</v>
       </c>
     </row>
@@ -4507,439 +4608,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920308</v>
-      </c>
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920321</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920327</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920334</v>
-      </c>
-      <c r="B6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920339</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920339</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920340</v>
-      </c>
-      <c r="B9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920340</v>
-      </c>
-      <c r="B10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920342</v>
-      </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920347</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920347</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920350</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920352</v>
-      </c>
-      <c r="B15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920354</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>339</v>
-      </c>
-      <c r="E16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920445</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>340</v>
-      </c>
-      <c r="E17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920450</v>
-      </c>
-      <c r="B18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920450</v>
-      </c>
-      <c r="B19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920453</v>
-      </c>
-      <c r="B20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920453</v>
-      </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4969,22 +4637,375 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
+        <v>19330051920308</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>19330051920311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>19330051920321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>19330051920327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>19330051920330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>19330051920334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>19330051920339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>19330051920340</v>
+      </c>
+      <c r="B9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>19330051920342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>19330051920350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>19330051920352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>19330051920353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>19330051920354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>19330051920445</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>19330051920450</v>
+      </c>
+      <c r="B16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>19330051920453</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>18330051920097</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4992,13 +5013,13 @@
         <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
         <v>157</v>
@@ -5012,19 +5033,19 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5038,7 +5059,7 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
         <v>157</v>
@@ -5049,56 +5070,56 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920374</v>
+        <v>19330051920383</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920382</v>
+        <v>19330051920386</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920383</v>
+        <v>19330051920393</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
         <v>157</v>
@@ -5109,76 +5130,76 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920386</v>
+        <v>19330051920393</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920386</v>
+        <v>19330051920396</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920391</v>
+        <v>19330051920399</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920393</v>
+        <v>19330051920399</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>360</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
         <v>157</v>
@@ -5189,36 +5210,36 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920393</v>
+        <v>19330051920419</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920396</v>
+        <v>19330051920419</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
         <v>157</v>
@@ -5229,62 +5250,22 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920399</v>
+        <v>19330051920427</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920399</v>
-      </c>
-      <c r="B16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920427</v>
-      </c>
-      <c r="B17" t="s">
-        <v>347</v>
-      </c>
-      <c r="C17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" t="s">
-        <v>366</v>
-      </c>
-      <c r="E17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5361,10 +5342,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
         <v>229</v>
@@ -5381,10 +5362,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
         <v>237</v>
@@ -5401,10 +5382,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
         <v>237</v>
@@ -5421,10 +5402,10 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
         <v>229</v>
@@ -5441,7 +5422,7 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -5478,13 +5459,13 @@
         <v>18330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
         <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E8" t="s">
         <v>229</v>
@@ -5498,13 +5479,13 @@
         <v>18330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
         <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
         <v>237</v>
@@ -5518,13 +5499,13 @@
         <v>18330051920037</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
         <v>237</v>
@@ -5538,13 +5519,13 @@
         <v>18330051920037</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E11" t="s">
         <v>229</v>
@@ -5764,7 +5745,7 @@
         <v>18330051920272</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
         <v>163</v>
@@ -5773,7 +5754,7 @@
         <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5823,13 +5804,13 @@
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5843,10 +5824,10 @@
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5857,16 +5838,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5877,19 +5858,19 @@
         <v>18330051920116</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5897,7 +5878,7 @@
         <v>18330051920120</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -5906,10 +5887,10 @@
         <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5917,19 +5898,19 @@
         <v>18330051920127</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5937,13 +5918,13 @@
         <v>18330051920127</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
         <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E8" t="s">
         <v>229</v>
@@ -5957,19 +5938,19 @@
         <v>18330051920128</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
         <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5977,19 +5958,19 @@
         <v>18330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5997,13 +5978,13 @@
         <v>18330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E11" t="s">
         <v>229</v>
@@ -6023,13 +6004,13 @@
         <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6043,7 +6024,7 @@
         <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
         <v>229</v>
@@ -6060,16 +6041,16 @@
         <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D14" t="s">
         <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6116,7 +6097,7 @@
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E2" t="s">
         <v>237</v>
@@ -6133,13 +6114,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6153,10 +6134,10 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
         <v>237</v>
@@ -6172,7 +6153,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6203,16 +6184,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6223,16 +6204,16 @@
         <v>17330051920470</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6240,22 +6221,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920041</v>
+        <v>18330051920040</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6269,10 +6250,10 @@
         <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6280,41 +6261,81 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920053</v>
+        <v>18330051920041</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>18330051920053</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>18330051920066</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>163</v>
       </c>
-      <c r="C7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" t="s">
         <v>237</v>
       </c>
-      <c r="F7">
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>18330051920073</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
     </row>
@@ -7550,7 +7571,7 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7570,7 +7591,7 @@
         <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7630,7 +7651,7 @@
         <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7650,7 +7671,7 @@
         <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>5</v>

--- a/Rescatables.xlsx
+++ b/Rescatables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="502">
   <si>
     <t>Num_Cont</t>
   </si>
@@ -159,9 +159,6 @@
     <t>CHULIN</t>
   </si>
   <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>CESAR SAID</t>
   </si>
   <si>
-    <t>JULIO</t>
-  </si>
-  <si>
     <t>WENCESLAO</t>
   </si>
   <si>
@@ -615,6 +609,9 @@
     <t>CANSECO</t>
   </si>
   <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
     <t>MATA</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
     <t>REYES</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>PARRA</t>
   </si>
   <si>
@@ -642,6 +642,9 @@
     <t>SARMIENTO</t>
   </si>
   <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
     <t>LUIS YAEL</t>
   </si>
   <si>
@@ -654,6 +657,9 @@
     <t>ANGELES NAHOMI</t>
   </si>
   <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
     <t>CRISTIAN ARTURO</t>
   </si>
   <si>
@@ -663,6 +669,9 @@
     <t>ESTHER ARISBETH</t>
   </si>
   <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
     <t>BERENICE</t>
   </si>
   <si>
@@ -732,9 +741,6 @@
     <t>MONTERROSAS</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>CAMPOS</t>
   </si>
   <si>
@@ -807,9 +813,6 @@
     <t>CIENCIA, TECNOLOGÍA, SOCIEDAD Y VALORES</t>
   </si>
   <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
     <t>CABRERA</t>
   </si>
   <si>
@@ -819,9 +822,6 @@
     <t>COUDER</t>
   </si>
   <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
     <t>NIEVES</t>
   </si>
   <si>
@@ -834,6 +834,9 @@
     <t>MIGUEL ANGEL</t>
   </si>
   <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
     <t>MARTHA</t>
   </si>
   <si>
@@ -849,6 +852,9 @@
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>HERAS</t>
+  </si>
+  <si>
     <t>LICEA</t>
   </si>
   <si>
@@ -873,6 +879,9 @@
     <t>PAOLA</t>
   </si>
   <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
     <t>QADMIEL TAMARA</t>
   </si>
   <si>
@@ -954,22 +963,25 @@
     <t>DISEÑA Y MANTIENE LOS SISTEMAS DE ILUMINACIÓN</t>
   </si>
   <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
     <t>LEON</t>
   </si>
   <si>
-    <t>LIMA</t>
-  </si>
-  <si>
     <t>NARVAEZ</t>
   </si>
   <si>
+    <t>LINARES</t>
+  </si>
+  <si>
     <t>TLEHUACTLE</t>
   </si>
   <si>
     <t>MORO</t>
   </si>
   <si>
-    <t>MARINERO</t>
+    <t>EDITH</t>
   </si>
   <si>
     <t>KEVIN JETHZAEL</t>
@@ -981,18 +993,12 @@
     <t>DANNA PAOLA</t>
   </si>
   <si>
-    <t>GUILLERMO UBALDO</t>
-  </si>
-  <si>
     <t>ARIEL</t>
   </si>
   <si>
     <t>JANETH</t>
   </si>
   <si>
-    <t>JUDITH ESTEFANIA</t>
-  </si>
-  <si>
     <t>REALIZA ANÁLISIS HEMATOLÓGICOS DE SERIE BLANCA Y HEMOSTASIA</t>
   </si>
   <si>
@@ -1005,9 +1011,21 @@
     <t>BAEZ</t>
   </si>
   <si>
+    <t>COBOS</t>
+  </si>
+  <si>
+    <t>TAMAYO</t>
+  </si>
+  <si>
     <t>ROCHA</t>
   </si>
   <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>GASPAR</t>
   </si>
   <si>
@@ -1026,6 +1044,12 @@
     <t>EDGAR FLORENCIO</t>
   </si>
   <si>
+    <t>YOLET</t>
+  </si>
+  <si>
+    <t>JOSMAR JAHIR</t>
+  </si>
+  <si>
     <t>MARIA VALERIA</t>
   </si>
   <si>
@@ -1110,9 +1134,6 @@
     <t>LEÓN</t>
   </si>
   <si>
-    <t>LINARES</t>
-  </si>
-  <si>
     <t>KATHIA</t>
   </si>
   <si>
@@ -1206,6 +1227,9 @@
     <t>CASTAÑEDA</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>BAROJAS</t>
   </si>
   <si>
@@ -1218,6 +1242,9 @@
     <t>PAUL ARAVIER</t>
   </si>
   <si>
+    <t>CRISTIAN JAHIR</t>
+  </si>
+  <si>
     <t>SAID ANDRES</t>
   </si>
   <si>
@@ -1272,9 +1299,6 @@
     <t>MUÑOZ</t>
   </si>
   <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
     <t>KELLY ITZEL</t>
   </si>
   <si>
@@ -1287,12 +1311,12 @@
     <t>VICTOR HUGO</t>
   </si>
   <si>
+    <t>REALIZA MANTENIMIENTO PREVENTIVO</t>
+  </si>
+  <si>
     <t>REALIZA MANTENIMIENTO CORRECTIVO</t>
   </si>
   <si>
-    <t>REALIZA MANTENIMIENTO PREVENTIVO</t>
-  </si>
-  <si>
     <t>ARIZMENDI</t>
   </si>
   <si>
@@ -1377,9 +1401,6 @@
     <t>GUEVARA</t>
   </si>
   <si>
-    <t>EDITH</t>
-  </si>
-  <si>
     <t>SHARITH</t>
   </si>
   <si>
@@ -1456,9 +1477,6 @@
   </si>
   <si>
     <t>DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
   </si>
   <si>
     <t>CORDOBA</t>
@@ -2164,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2195,16 +2213,16 @@
         <v>20330051920156</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -2215,16 +2233,16 @@
         <v>20330051920158</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -2235,16 +2253,16 @@
         <v>20330051920161</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -2261,10 +2279,10 @@
         <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2281,10 +2299,10 @@
         <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2292,19 +2310,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920172</v>
+        <v>20330051920168</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -2312,19 +2330,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920178</v>
+        <v>20330051920168</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -2332,19 +2350,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920178</v>
+        <v>20330051920172</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -2352,19 +2370,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920179</v>
+        <v>20330051920178</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -2372,19 +2390,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920254</v>
+        <v>20330051920179</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -2392,21 +2410,81 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <v>20330051920184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20330051920184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>20330051920254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>20330051920306</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>192</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15">
         <v>-1</v>
       </c>
     </row>
@@ -2448,16 +2526,16 @@
         <v>20330051920040</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -2468,16 +2546,16 @@
         <v>20330051920040</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2488,16 +2566,16 @@
         <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -2508,16 +2586,16 @@
         <v>20330051920042</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2528,16 +2606,16 @@
         <v>20330051920046</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -2548,16 +2626,16 @@
         <v>20330051920053</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -2568,16 +2646,16 @@
         <v>20330051920111</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -2588,16 +2666,16 @@
         <v>20330051920112</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -2608,7 +2686,7 @@
         <v>20330051920113</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -2617,7 +2695,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -2661,16 +2739,16 @@
         <v>20330051920283</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -2681,16 +2759,16 @@
         <v>20330051920284</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -2701,16 +2779,16 @@
         <v>20330051920284</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2721,16 +2799,16 @@
         <v>20330051920295</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2741,16 +2819,16 @@
         <v>20330051920295</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -2761,16 +2839,16 @@
         <v>20330051920298</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2784,13 +2862,13 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2801,16 +2879,16 @@
         <v>20330051920309</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2821,16 +2899,16 @@
         <v>20330051920311</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -2841,16 +2919,16 @@
         <v>20330051920311</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2861,16 +2939,16 @@
         <v>20330051920313</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -2881,16 +2959,16 @@
         <v>20330051920316</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -2901,16 +2979,16 @@
         <v>20330051920390</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -2954,16 +3032,16 @@
         <v>18330051920168</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -2974,16 +3052,16 @@
         <v>18330061460390</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -2994,16 +3072,16 @@
         <v>19330051920003</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -3014,16 +3092,16 @@
         <v>19330051920035</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3034,16 +3112,16 @@
         <v>19330051920037</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -3054,16 +3132,16 @@
         <v>19330051920038</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -3104,16 +3182,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920149</v>
+        <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>251</v>
@@ -3127,73 +3205,73 @@
         <v>19330051920151</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920151</v>
+        <v>19330051920159</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920159</v>
+        <v>19330051920162</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920162</v>
+        <v>19330051920163</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
         <v>252</v>
@@ -3204,42 +3282,42 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920165</v>
+        <v>19330051920163</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>262</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920276</v>
+        <v>19330051920165</v>
       </c>
       <c r="B8" t="s">
         <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
         <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3247,16 +3325,16 @@
         <v>19330051920276</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -3269,7 +3347,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3300,16 +3378,16 @@
         <v>19330051420227</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3320,16 +3398,16 @@
         <v>19330051920227</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -3337,16 +3415,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920227</v>
+        <v>19330051920234</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>251</v>
@@ -3357,39 +3435,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920234</v>
+        <v>19330051920235</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920237</v>
+        <v>19330051920235</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -3397,19 +3475,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920239</v>
+        <v>19330051920237</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -3417,22 +3495,42 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
+        <v>19330051920239</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>19330051920429</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3473,16 +3571,16 @@
         <v>19330051920125</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3493,16 +3591,16 @@
         <v>19330051920130</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3513,16 +3611,16 @@
         <v>19330051920130</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3536,13 +3634,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -3553,16 +3651,16 @@
         <v>19330051920133</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -3573,16 +3671,16 @@
         <v>19330051920139</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -3593,16 +3691,16 @@
         <v>19330051920140</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -3613,16 +3711,16 @@
         <v>19330051920140</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -3633,16 +3731,16 @@
         <v>19330051920141</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -3689,13 +3787,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -3709,13 +3807,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -3726,16 +3824,16 @@
         <v>19330051920085</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -3746,19 +3844,19 @@
         <v>19330051920085</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3766,7 +3864,7 @@
         <v>19330051920102</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3775,7 +3873,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -3786,16 +3884,16 @@
         <v>19330051920117</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -3806,16 +3904,16 @@
         <v>19330051920117</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -3826,16 +3924,16 @@
         <v>19330051920120</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -3847,552 +3945,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920213</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920213</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>314</v>
-      </c>
-      <c r="E12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920291</v>
-      </c>
-      <c r="B2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>21330051920002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>21330051920003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>21330051920003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>21330051920005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>21330051920005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>21330051920006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>21330051920006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>21330051920017</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>21330051920017</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>21330051920355</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>21330051920379</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>21330051920379</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>327</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -4422,16 +3974,602 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
+        <v>19330051920195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>19330051920195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>19330051920197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>19330051920200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>19330051920201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>19330051920202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>19330051920202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>19330051920209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>19330051920213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>20330051920291</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>21330051920002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>21330051920003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>21330051920003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>21330051920005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>21330051920005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>21330051920006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>21330051920006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>21330051920007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>21330051920007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>21330051920017</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>21330051920017</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>21330051920025</v>
+      </c>
+      <c r="B14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>21330051920025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>21330051920355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>21330051920379</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>21330051920379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>21330051920191</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -4448,13 +4586,13 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -4462,19 +4600,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21330051920194</v>
+        <v>21330051920199</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -4482,7 +4620,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21330051920199</v>
+        <v>21330051920201</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -4491,13 +4629,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4505,24 +4643,24 @@
         <v>21330051920201</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920201</v>
+        <v>21330051920207</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -4531,18 +4669,18 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920207</v>
+        <v>21330051920209</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -4551,18 +4689,18 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920209</v>
+        <v>21330051920213</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -4571,32 +4709,12 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>21330051920213</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10">
         <v>5</v>
       </c>
     </row>
@@ -4638,16 +4756,16 @@
         <v>20330051920185</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -4658,16 +4776,16 @@
         <v>20330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -4678,16 +4796,16 @@
         <v>21330051920030</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -4698,13 +4816,13 @@
         <v>21330051920038</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -4721,10 +4839,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -4741,13 +4859,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -4761,13 +4879,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -4778,16 +4896,16 @@
         <v>21330051920051</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -4798,16 +4916,16 @@
         <v>21330051920054</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -4818,16 +4936,16 @@
         <v>21330051920059</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -4838,13 +4956,13 @@
         <v>21330051920067</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -4858,16 +4976,16 @@
         <v>21330051920067</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -4911,16 +5029,16 @@
         <v>21330051920072</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -4931,13 +5049,13 @@
         <v>21330051920078</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -4951,13 +5069,13 @@
         <v>21330051920078</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -4971,16 +5089,16 @@
         <v>21330051920083</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -4994,13 +5112,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5017,7 +5135,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -5037,10 +5155,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5051,13 +5169,13 @@
         <v>21330051920092</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -5071,16 +5189,16 @@
         <v>21330051920092</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D10" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -5091,13 +5209,13 @@
         <v>21330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -5111,13 +5229,13 @@
         <v>21330051920098</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -5131,16 +5249,16 @@
         <v>21330051920098</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -5151,16 +5269,16 @@
         <v>21330051920099</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -5171,13 +5289,13 @@
         <v>21330051920099</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -5191,13 +5309,13 @@
         <v>21330051920101</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -5211,16 +5329,16 @@
         <v>21330051920101</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -5231,16 +5349,16 @@
         <v>21330051920104</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -5251,13 +5369,13 @@
         <v>21330051920104</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -5271,13 +5389,13 @@
         <v>21330051920105</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -5291,16 +5409,16 @@
         <v>21330051920107</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D21" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -5311,16 +5429,16 @@
         <v>21330051920108</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -5331,13 +5449,13 @@
         <v>21330051920383</v>
       </c>
       <c r="B23" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -5351,16 +5469,16 @@
         <v>21330051920387</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D24" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -5371,13 +5489,13 @@
         <v>21330051920387</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -5424,13 +5542,13 @@
         <v>20330051920275</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -5444,16 +5562,16 @@
         <v>21330051920115</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -5464,16 +5582,16 @@
         <v>21330051920118</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -5484,13 +5602,13 @@
         <v>21330051920121</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -5504,16 +5622,16 @@
         <v>21330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -5527,13 +5645,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5544,13 +5662,13 @@
         <v>21330051920126</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -5597,16 +5715,16 @@
         <v>21330051920135</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5617,13 +5735,13 @@
         <v>21330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -5637,13 +5755,13 @@
         <v>21330051920136</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -5657,16 +5775,16 @@
         <v>21330051920136</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -5677,16 +5795,16 @@
         <v>21330051920139</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5699,7 +5817,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5730,16 +5848,16 @@
         <v>20330051920066</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -5750,19 +5868,19 @@
         <v>20330051920069</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5776,7 +5894,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
         <v>156</v>
@@ -5796,10 +5914,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -5813,13 +5931,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -5833,13 +5951,13 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -5850,16 +5968,16 @@
         <v>20330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -5870,16 +5988,16 @@
         <v>20330051920073</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -5887,16 +6005,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920082</v>
+        <v>20330051920081</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E10" t="s">
         <v>156</v>
@@ -5907,19 +6025,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920082</v>
+        <v>20330051920081</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -5927,21 +6045,61 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <v>20330051920082</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20330051920082</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>20330051920090</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14">
         <v>-1</v>
       </c>
     </row>
@@ -5983,16 +6141,16 @@
         <v>19330051920177</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6003,16 +6161,16 @@
         <v>19330051920177</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -6023,16 +6181,16 @@
         <v>20330051920191</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6043,16 +6201,16 @@
         <v>20330051920202</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6096,19 +6254,19 @@
         <v>19330051920314</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6116,19 +6274,19 @@
         <v>19330051920314</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" t="s">
-        <v>157</v>
-      </c>
       <c r="F3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6136,16 +6294,16 @@
         <v>20330051920268</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -6162,10 +6320,10 @@
         <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -6209,16 +6367,16 @@
         <v>20330051920119</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6229,16 +6387,16 @@
         <v>20330051920123</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6249,16 +6407,16 @@
         <v>20330051920129</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6272,13 +6430,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6289,16 +6447,16 @@
         <v>20330051920136</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6309,16 +6467,16 @@
         <v>20330051920136</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -6329,16 +6487,16 @@
         <v>20330051920151</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6349,16 +6507,16 @@
         <v>20330051920151</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -6369,13 +6527,13 @@
         <v>20330051920153</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -6388,7 +6546,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6419,16 +6577,16 @@
         <v>17330051920191</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -6439,16 +6597,16 @@
         <v>17330051920191</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6459,33 +6617,33 @@
         <v>20330051920323</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920323</v>
+        <v>20330051920326</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
         <v>154</v>
@@ -6499,16 +6657,16 @@
         <v>20330051920326</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6516,22 +6674,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920326</v>
+        <v>20330051920396</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6539,38 +6697,18 @@
         <v>20330051920396</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920396</v>
-      </c>
-      <c r="B9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9">
         <v>5</v>
       </c>
     </row>
@@ -6612,16 +6750,16 @@
         <v>18330051920022</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -6632,16 +6770,16 @@
         <v>19330051920042</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -6652,16 +6790,16 @@
         <v>19330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6672,16 +6810,16 @@
         <v>19330051920046</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -6692,16 +6830,16 @@
         <v>19330051920049</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -6712,16 +6850,16 @@
         <v>19330051920055</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -6732,16 +6870,16 @@
         <v>19330051920055</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -6752,16 +6890,16 @@
         <v>19330051920056</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D9" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -6772,16 +6910,16 @@
         <v>19330051920056</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -6795,13 +6933,13 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -6812,16 +6950,16 @@
         <v>19330051920074</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -6832,16 +6970,16 @@
         <v>19330051920081</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -6852,16 +6990,16 @@
         <v>19330051920081</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -6905,13 +7043,13 @@
         <v>21330051920225</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -6925,13 +7063,13 @@
         <v>21330051920233</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -6945,16 +7083,16 @@
         <v>21330051920233</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -6965,13 +7103,13 @@
         <v>21330051920240</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -6985,13 +7123,13 @@
         <v>21330051920241</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -7005,13 +7143,13 @@
         <v>21330051920241</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -7025,13 +7163,13 @@
         <v>21330051920243</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -7078,16 +7216,16 @@
         <v>18330051920242</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7098,16 +7236,16 @@
         <v>18330051920242</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7118,16 +7256,16 @@
         <v>18330051920319</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -7138,16 +7276,16 @@
         <v>18330051920321</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7161,13 +7299,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7181,13 +7319,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" t="s">
         <v>254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -7201,13 +7339,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -7221,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -7238,16 +7376,16 @@
         <v>19330051920269</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -7258,16 +7396,16 @@
         <v>19330051920273</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -7278,16 +7416,16 @@
         <v>19330051920278</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -7298,16 +7436,16 @@
         <v>19330051920278</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -7321,13 +7459,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -7341,13 +7479,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -7358,16 +7496,16 @@
         <v>19330051920286</v>
       </c>
       <c r="B16" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -7378,16 +7516,16 @@
         <v>19330051920286</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -7398,16 +7536,16 @@
         <v>19330051920292</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -7418,16 +7556,16 @@
         <v>19330051920293</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -7438,16 +7576,16 @@
         <v>19330051920298</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -7458,16 +7596,16 @@
         <v>19330051920299</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D21" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -7478,16 +7616,16 @@
         <v>19330051920301</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -7498,16 +7636,16 @@
         <v>19330051920343</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -7521,13 +7659,13 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -7538,16 +7676,16 @@
         <v>19330051920449</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -7591,16 +7729,16 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7611,16 +7749,16 @@
         <v>19330051920312</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -7631,16 +7769,16 @@
         <v>19330051920319</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -7651,16 +7789,16 @@
         <v>19330051920321</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -7671,16 +7809,16 @@
         <v>19330051920323</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -7691,16 +7829,16 @@
         <v>19330051920345</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -7714,13 +7852,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -7733,7 +7871,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7764,16 +7902,16 @@
         <v>18330051920097</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>470</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -7784,16 +7922,16 @@
         <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -7801,22 +7939,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920108</v>
+        <v>19330051920358</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7824,36 +7962,36 @@
         <v>19330051920358</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920358</v>
+        <v>19330051920369</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -7861,19 +7999,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920369</v>
+        <v>19330051920375</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -7881,19 +8019,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -7907,33 +8045,33 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920377</v>
+        <v>19330051920398</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -7941,41 +8079,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920398</v>
+        <v>19330051920426</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>482</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920426</v>
-      </c>
-      <c r="B12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>476</v>
-      </c>
-      <c r="E12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F12">
         <v>-1</v>
       </c>
     </row>
@@ -8017,16 +8135,16 @@
         <v>19330051920250</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8037,16 +8155,16 @@
         <v>19330051920253</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -8060,13 +8178,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8080,13 +8198,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -8100,13 +8218,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8120,13 +8238,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8140,13 +8258,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8160,13 +8278,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8180,13 +8298,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -8197,16 +8315,16 @@
         <v>19330051920348</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8217,16 +8335,16 @@
         <v>19330051920403</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -8237,16 +8355,16 @@
         <v>19330051920407</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -8257,16 +8375,16 @@
         <v>19330051920407</v>
       </c>
       <c r="B14" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -8277,16 +8395,16 @@
         <v>19330051920414</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -8297,16 +8415,16 @@
         <v>19330051920433</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -8350,13 +8468,13 @@
         <v>21330051920253</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -8370,13 +8488,13 @@
         <v>21330051920257</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -8390,13 +8508,13 @@
         <v>21330051920271</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -8410,13 +8528,13 @@
         <v>21330051920277</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -8430,13 +8548,13 @@
         <v>21330051920277</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -8450,16 +8568,16 @@
         <v>21330051920283</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -8470,13 +8588,13 @@
         <v>21330051920284</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -8490,13 +8608,13 @@
         <v>21330051920284</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -8510,13 +8628,13 @@
         <v>21330051920288</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -8530,13 +8648,13 @@
         <v>21330051920288</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -8550,13 +8668,13 @@
         <v>21330051920358</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -8570,16 +8688,16 @@
         <v>21330051920358</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -8593,10 +8711,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -8643,13 +8761,13 @@
         <v>21330051920291</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -8663,13 +8781,13 @@
         <v>21330051920295</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -8683,16 +8801,16 @@
         <v>21330051920295</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -8703,13 +8821,13 @@
         <v>21330051920297</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -8723,13 +8841,13 @@
         <v>21330051920297</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -8743,13 +8861,13 @@
         <v>21330051920298</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -8763,13 +8881,13 @@
         <v>21330051920299</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -8783,16 +8901,16 @@
         <v>21330051920299</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -8803,16 +8921,16 @@
         <v>21330051920304</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -8823,13 +8941,13 @@
         <v>21330051920304</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -8843,13 +8961,13 @@
         <v>21330051920305</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -8866,13 +8984,13 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -8886,10 +9004,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -8903,16 +9021,16 @@
         <v>21330051920311</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -8923,13 +9041,13 @@
         <v>21330051920319</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -8943,13 +9061,13 @@
         <v>21330051920324</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
@@ -8963,13 +9081,13 @@
         <v>21330051920324</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -8983,16 +9101,16 @@
         <v>21330051920326</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>-1</v>
@@ -9009,7 +9127,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -9029,10 +9147,10 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -9043,16 +9161,16 @@
         <v>21330051920328</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -9063,13 +9181,13 @@
         <v>21330051920328</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -9083,16 +9201,16 @@
         <v>21330051920330</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -9103,13 +9221,13 @@
         <v>21330051920330</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -9156,13 +9274,13 @@
         <v>21330051920342</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -9176,16 +9294,16 @@
         <v>21330051920352</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -9196,13 +9314,13 @@
         <v>21330051920353</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -9249,16 +9367,16 @@
         <v>20330051920002</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -9269,16 +9387,16 @@
         <v>20330051920002</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -9289,16 +9407,16 @@
         <v>20330051920009</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -9309,16 +9427,16 @@
         <v>20330051920011</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9329,16 +9447,16 @@
         <v>20330051920012</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -9349,16 +9467,16 @@
         <v>20330051920014</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -9372,13 +9490,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -9389,16 +9507,16 @@
         <v>20330051920027</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -9409,16 +9527,16 @@
         <v>20330051920029</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -9429,16 +9547,16 @@
         <v>20330051920029</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -9449,16 +9567,16 @@
         <v>20330051920036</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -9469,16 +9587,16 @@
         <v>20330051920361</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
         <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>155</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -9489,16 +9607,16 @@
         <v>20330051920361</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -9542,16 +9660,16 @@
         <v>20330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -9562,16 +9680,16 @@
         <v>20330051920224</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -9582,16 +9700,16 @@
         <v>20330051920226</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -9605,13 +9723,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9622,16 +9740,16 @@
         <v>20330051920245</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -9642,16 +9760,16 @@
         <v>20330051920245</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -9662,16 +9780,16 @@
         <v>20330051920250</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -9682,16 +9800,16 @@
         <v>20330051920252</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -9702,16 +9820,16 @@
         <v>20330051920253</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -9758,13 +9876,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -9778,13 +9896,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -9795,16 +9913,16 @@
         <v>20330051920336</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -9815,16 +9933,16 @@
         <v>20330051920336</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9838,13 +9956,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -9858,13 +9976,13 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -9875,16 +9993,16 @@
         <v>20330051920352</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -9895,16 +10013,16 @@
         <v>20330051920357</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -9918,13 +10036,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>-1</v>
